--- a/source/참고파일/실습용_테이블레이아웃 (1).xlsx
+++ b/source/참고파일/실습용_테이블레이아웃 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD6\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\참고파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677E542-7C16-4955-9D75-2F7D11C30323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9723D-CC12-4106-93FE-B9EAC963038E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2850" yWindow="1785" windowWidth="17265" windowHeight="11385" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="1425" windowWidth="17265" windowHeight="11385" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상세테이블내역" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="835">
   <si>
     <r>
       <t>업</t>
@@ -3384,6 +3384,14 @@
   </si>
   <si>
     <t>건축자재 mes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 한번 돌아갈 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lot(기계로 찍어낸 제품의 묶음, 시간이 지날 때 마다 품질이 달라짐)을 부여할 제품의 단위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4194,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4206,7 +4214,7 @@
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="7" max="7" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1">
@@ -15728,7 +15736,9 @@
         <v>478</v>
       </c>
       <c r="F681" s="25"/>
-      <c r="G681" s="26"/>
+      <c r="G681" s="26" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="682" spans="1:8">
       <c r="A682" s="24"/>
@@ -15762,7 +15772,9 @@
         <v>478</v>
       </c>
       <c r="F683" s="25"/>
-      <c r="G683" s="26"/>
+      <c r="G683" s="26" t="s">
+        <v>833</v>
+      </c>
       <c r="H683" s="5"/>
     </row>
     <row r="684" spans="1:8">

--- a/source/참고파일/실습용_테이블레이아웃 (1).xlsx
+++ b/source/참고파일/실습용_테이블레이아웃 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\참고파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9723D-CC12-4106-93FE-B9EAC963038E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4684A7-B94E-46DE-A447-B16D828CC60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="1425" windowWidth="17265" windowHeight="11385" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-10830" yWindow="5340" windowWidth="17265" windowHeight="11385" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상세테이블내역" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="837">
   <si>
     <r>
       <t>업</t>
@@ -3393,6 +3393,14 @@
   <si>
     <t>Lot(기계로 찍어낸 제품의 묶음, 시간이 지날 때 마다 품질이 달라짐)을 부여할 제품의 단위</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pallet_Master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔레트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3533,7 +3541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3723,17 +3731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3762,7 +3759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3868,19 +3865,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -3918,6 +3909,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4200,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H738"/>
+  <dimension ref="A1:H746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4218,56 +4212,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="44" t="s">
         <v>832</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -8418,7 +8412,7 @@
       <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="38" t="s">
         <v>558</v>
       </c>
       <c r="B253" s="19"/>
@@ -8431,7 +8425,7 @@
       <c r="G253" s="23"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="41" t="s">
+      <c r="A254" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B254" s="14" t="s">
@@ -8452,7 +8446,7 @@
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="41" t="s">
+      <c r="A255" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B255" s="14" t="s">
@@ -8471,7 +8465,7 @@
       <c r="G255" s="26"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="42" t="s">
+      <c r="A256" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B256" s="14" t="s">
@@ -8492,7 +8486,7 @@
       <c r="G256" s="26"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="42" t="s">
+      <c r="A257" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B257" s="14" t="s">
@@ -8509,7 +8503,7 @@
       <c r="G257" s="26"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="42"/>
+      <c r="A258" s="40"/>
       <c r="B258" s="14" t="s">
         <v>561</v>
       </c>
@@ -8524,7 +8518,7 @@
       <c r="G258" s="26"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="42"/>
+      <c r="A259" s="40"/>
       <c r="B259" s="14" t="s">
         <v>823</v>
       </c>
@@ -8539,7 +8533,7 @@
       <c r="G259" s="26"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="42"/>
+      <c r="A260" s="40"/>
       <c r="B260" s="14" t="s">
         <v>562</v>
       </c>
@@ -8554,7 +8548,7 @@
       <c r="G260" s="26"/>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="42"/>
+      <c r="A261" s="40"/>
       <c r="B261" s="14" t="s">
         <v>826</v>
       </c>
@@ -8571,7 +8565,7 @@
       <c r="G261" s="26"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="42"/>
+      <c r="A262" s="40"/>
       <c r="B262" s="14" t="s">
         <v>829</v>
       </c>
@@ -8586,7 +8580,7 @@
       <c r="G262" s="26"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="42"/>
+      <c r="A263" s="40"/>
       <c r="B263" s="14" t="s">
         <v>543</v>
       </c>
@@ -8601,7 +8595,7 @@
       <c r="G263" s="26"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="42" t="s">
+      <c r="A264" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B264" s="14" t="s">
@@ -8618,7 +8612,7 @@
       <c r="G264" s="26"/>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="42" t="s">
+      <c r="A265" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B265" s="14" t="s">
@@ -8635,7 +8629,7 @@
       <c r="G265" s="26"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="42"/>
+      <c r="A266" s="40"/>
       <c r="B266" s="14" t="s">
         <v>541</v>
       </c>
@@ -8650,7 +8644,7 @@
       <c r="G266" s="26"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="42"/>
+      <c r="A267" s="40"/>
       <c r="B267" s="14" t="s">
         <v>414</v>
       </c>
@@ -8665,7 +8659,7 @@
       <c r="G267" s="26"/>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="42"/>
+      <c r="A268" s="40"/>
       <c r="B268" s="14" t="s">
         <v>415</v>
       </c>
@@ -8682,7 +8676,7 @@
       <c r="G268" s="26"/>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="42"/>
+      <c r="A269" s="40"/>
       <c r="B269" s="14" t="s">
         <v>423</v>
       </c>
@@ -8697,7 +8691,7 @@
       <c r="G269" s="26"/>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="42"/>
+      <c r="A270" s="40"/>
       <c r="B270" s="14" t="s">
         <v>424</v>
       </c>
@@ -8714,7 +8708,7 @@
       <c r="G270" s="26"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="40" t="s">
+      <c r="A271" s="38" t="s">
         <v>563</v>
       </c>
       <c r="B271" s="19"/>
@@ -8727,7 +8721,7 @@
       <c r="G271" s="23"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="41"/>
+      <c r="A272" s="39"/>
       <c r="B272" s="14" t="s">
         <v>564</v>
       </c>
@@ -8746,7 +8740,7 @@
       <c r="G272" s="26"/>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="41" t="s">
+      <c r="A273" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B273" s="14" t="s">
@@ -8763,7 +8757,7 @@
       <c r="G273" s="26"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="41"/>
+      <c r="A274" s="39"/>
       <c r="B274" s="14" t="s">
         <v>493</v>
       </c>
@@ -8782,7 +8776,7 @@
       <c r="G274" s="26"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="41"/>
+      <c r="A275" s="39"/>
       <c r="B275" s="14" t="s">
         <v>566</v>
       </c>
@@ -8797,7 +8791,7 @@
       <c r="G275" s="17"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="41" t="s">
+      <c r="A276" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B276" s="14" t="s">
@@ -8816,7 +8810,7 @@
       <c r="G276" s="26"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="42" t="s">
+      <c r="A277" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B277" s="14" t="s">
@@ -8835,7 +8829,7 @@
       <c r="G277" s="33"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="42" t="s">
+      <c r="A278" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B278" s="14" t="s">
@@ -8854,7 +8848,7 @@
       <c r="G278" s="33"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="42"/>
+      <c r="A279" s="40"/>
       <c r="B279" s="14" t="s">
         <v>570</v>
       </c>
@@ -8871,7 +8865,7 @@
       <c r="G279" s="33"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="42"/>
+      <c r="A280" s="40"/>
       <c r="B280" s="14" t="s">
         <v>571</v>
       </c>
@@ -8888,7 +8882,7 @@
       <c r="G280" s="33"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="42"/>
+      <c r="A281" s="40"/>
       <c r="B281" s="14" t="s">
         <v>414</v>
       </c>
@@ -8903,7 +8897,7 @@
       <c r="G281" s="33"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="42" t="s">
+      <c r="A282" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B282" s="14" t="s">
@@ -8922,7 +8916,7 @@
       <c r="G282" s="33"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="42" t="s">
+      <c r="A283" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B283" s="14" t="s">
@@ -8939,7 +8933,7 @@
       <c r="G283" s="33"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="42"/>
+      <c r="A284" s="40"/>
       <c r="B284" s="14" t="s">
         <v>424</v>
       </c>
@@ -8956,7 +8950,7 @@
       <c r="G284" s="33"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="40" t="s">
+      <c r="A285" s="38" t="s">
         <v>572</v>
       </c>
       <c r="B285" s="19"/>
@@ -8969,7 +8963,7 @@
       <c r="G285" s="23"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="41"/>
+      <c r="A286" s="39"/>
       <c r="B286" s="14" t="s">
         <v>409</v>
       </c>
@@ -8988,7 +8982,7 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="41"/>
+      <c r="A287" s="39"/>
       <c r="B287" s="14" t="s">
         <v>573</v>
       </c>
@@ -9005,7 +8999,7 @@
       <c r="G287" s="26"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="41"/>
+      <c r="A288" s="39"/>
       <c r="B288" s="14" t="s">
         <v>574</v>
       </c>
@@ -9022,7 +9016,7 @@
       <c r="G288" s="26"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="41"/>
+      <c r="A289" s="39"/>
       <c r="B289" s="14" t="s">
         <v>529</v>
       </c>
@@ -9037,7 +9031,7 @@
       <c r="G289" s="26"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="41"/>
+      <c r="A290" s="39"/>
       <c r="B290" s="14" t="s">
         <v>414</v>
       </c>
@@ -9052,7 +9046,7 @@
       <c r="G290" s="26"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="41"/>
+      <c r="A291" s="39"/>
       <c r="B291" s="14" t="s">
         <v>415</v>
       </c>
@@ -9069,7 +9063,7 @@
       <c r="G291" s="26"/>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="41"/>
+      <c r="A292" s="39"/>
       <c r="B292" s="14" t="s">
         <v>423</v>
       </c>
@@ -9084,7 +9078,7 @@
       <c r="G292" s="26"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="41"/>
+      <c r="A293" s="39"/>
       <c r="B293" s="14" t="s">
         <v>424</v>
       </c>
@@ -9101,7 +9095,7 @@
       <c r="G293" s="26"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="40" t="s">
+      <c r="A294" s="38" t="s">
         <v>575</v>
       </c>
       <c r="B294" s="19"/>
@@ -9114,7 +9108,7 @@
       <c r="G294" s="23"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="41"/>
+      <c r="A295" s="39"/>
       <c r="B295" s="14" t="s">
         <v>522</v>
       </c>
@@ -9133,7 +9127,7 @@
       <c r="G295" s="26"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="41" t="s">
+      <c r="A296" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B296" s="14" t="s">
@@ -9154,7 +9148,7 @@
       <c r="G296" s="26"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="41" t="s">
+      <c r="A297" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B297" s="14" t="s">
@@ -9173,7 +9167,7 @@
       <c r="G297" s="26"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="41" t="s">
+      <c r="A298" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B298" s="14" t="s">
@@ -9190,7 +9184,7 @@
       <c r="G298" s="26"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="41"/>
+      <c r="A299" s="39"/>
       <c r="B299" s="14" t="s">
         <v>415</v>
       </c>
@@ -9207,7 +9201,7 @@
       <c r="G299" s="26"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="41" t="s">
+      <c r="A300" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B300" s="14" t="s">
@@ -9224,7 +9218,7 @@
       <c r="G300" s="26"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="41"/>
+      <c r="A301" s="39"/>
       <c r="B301" s="14" t="s">
         <v>424</v>
       </c>
@@ -9241,7 +9235,7 @@
       <c r="G301" s="26"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="40" t="s">
+      <c r="A302" s="38" t="s">
         <v>579</v>
       </c>
       <c r="B302" s="19"/>
@@ -9254,7 +9248,7 @@
       <c r="G302" s="23"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="41" t="s">
+      <c r="A303" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B303" s="14" t="s">
@@ -9275,7 +9269,7 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="41" t="s">
+      <c r="A304" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B304" s="14" t="s">
@@ -9294,7 +9288,7 @@
       <c r="G304" s="26"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="41" t="s">
+      <c r="A305" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B305" s="14" t="s">
@@ -9311,7 +9305,7 @@
       <c r="G305" s="26"/>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="41" t="s">
+      <c r="A306" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B306" s="14" t="s">
@@ -9328,7 +9322,7 @@
       <c r="G306" s="26"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="41" t="s">
+      <c r="A307" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B307" s="14" t="s">
@@ -9347,7 +9341,7 @@
       <c r="G307" s="26"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="41" t="s">
+      <c r="A308" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B308" s="14" t="s">
@@ -9366,7 +9360,7 @@
       <c r="G308" s="26"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="41"/>
+      <c r="A309" s="39"/>
       <c r="B309" s="14" t="s">
         <v>585</v>
       </c>
@@ -9383,7 +9377,7 @@
       <c r="G309" s="26"/>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="41"/>
+      <c r="A310" s="39"/>
       <c r="B310" s="14" t="s">
         <v>414</v>
       </c>
@@ -9398,7 +9392,7 @@
       <c r="G310" s="26"/>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="41"/>
+      <c r="A311" s="39"/>
       <c r="B311" s="14" t="s">
         <v>415</v>
       </c>
@@ -9415,7 +9409,7 @@
       <c r="G311" s="26"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="40" t="s">
+      <c r="A312" s="38" t="s">
         <v>586</v>
       </c>
       <c r="B312" s="19"/>
@@ -9428,7 +9422,7 @@
       <c r="G312" s="23"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="41" t="s">
+      <c r="A313" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B313" s="14" t="s">
@@ -9449,7 +9443,7 @@
       <c r="G313" s="26"/>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="41"/>
+      <c r="A314" s="39"/>
       <c r="B314" s="14" t="s">
         <v>587</v>
       </c>
@@ -9466,7 +9460,7 @@
       <c r="G314" s="26"/>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="41"/>
+      <c r="A315" s="39"/>
       <c r="B315" s="14" t="s">
         <v>588</v>
       </c>
@@ -9485,7 +9479,7 @@
       <c r="G315" s="26"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="41"/>
+      <c r="A316" s="39"/>
       <c r="B316" s="14" t="s">
         <v>589</v>
       </c>
@@ -9500,7 +9494,7 @@
       <c r="G316" s="26"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="41"/>
+      <c r="A317" s="39"/>
       <c r="B317" s="14" t="s">
         <v>590</v>
       </c>
@@ -9515,7 +9509,7 @@
       <c r="G317" s="26"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="41"/>
+      <c r="A318" s="39"/>
       <c r="B318" s="14" t="s">
         <v>591</v>
       </c>
@@ -9532,7 +9526,7 @@
       <c r="G318" s="26"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="41"/>
+      <c r="A319" s="39"/>
       <c r="B319" s="14" t="s">
         <v>592</v>
       </c>
@@ -9549,7 +9543,7 @@
       <c r="G319" s="26"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="41" t="s">
+      <c r="A320" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B320" s="14" t="s">
@@ -9566,7 +9560,7 @@
       <c r="G320" s="26"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="41"/>
+      <c r="A321" s="39"/>
       <c r="B321" s="14" t="s">
         <v>415</v>
       </c>
@@ -9583,7 +9577,7 @@
       <c r="G321" s="26"/>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="41"/>
+      <c r="A322" s="39"/>
       <c r="B322" s="14" t="s">
         <v>423</v>
       </c>
@@ -9598,7 +9592,7 @@
       <c r="G322" s="26"/>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="41"/>
+      <c r="A323" s="39"/>
       <c r="B323" s="14" t="s">
         <v>424</v>
       </c>
@@ -9615,7 +9609,7 @@
       <c r="G323" s="26"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="40" t="s">
+      <c r="A324" s="38" t="s">
         <v>593</v>
       </c>
       <c r="B324" s="19"/>
@@ -9628,7 +9622,7 @@
       <c r="G324" s="23"/>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="41"/>
+      <c r="A325" s="39"/>
       <c r="B325" s="14" t="s">
         <v>594</v>
       </c>
@@ -9647,7 +9641,7 @@
       <c r="G325" s="26"/>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="41"/>
+      <c r="A326" s="39"/>
       <c r="B326" s="14" t="s">
         <v>595</v>
       </c>
@@ -9664,7 +9658,7 @@
       <c r="G326" s="26"/>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="41"/>
+      <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
         <v>422</v>
       </c>
@@ -9683,7 +9677,7 @@
       </c>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="41"/>
+      <c r="A328" s="39"/>
       <c r="B328" s="14" t="s">
         <v>414</v>
       </c>
@@ -9698,7 +9692,7 @@
       <c r="G328" s="26"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="41"/>
+      <c r="A329" s="39"/>
       <c r="B329" s="14" t="s">
         <v>415</v>
       </c>
@@ -9715,7 +9709,7 @@
       <c r="G329" s="26"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="42" t="s">
+      <c r="A330" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B330" s="14" t="s">
@@ -9732,7 +9726,7 @@
       <c r="G330" s="33"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="42" t="s">
+      <c r="A331" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B331" s="14" t="s">
@@ -9751,7 +9745,7 @@
       <c r="G331" s="33"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="40" t="s">
+      <c r="A332" s="38" t="s">
         <v>596</v>
       </c>
       <c r="B332" s="19"/>
@@ -9764,7 +9758,7 @@
       <c r="G332" s="23"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="41"/>
+      <c r="A333" s="39"/>
       <c r="B333" s="14" t="s">
         <v>588</v>
       </c>
@@ -9783,7 +9777,7 @@
       <c r="G333" s="26"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="41"/>
+      <c r="A334" s="39"/>
       <c r="B334" s="14" t="s">
         <v>594</v>
       </c>
@@ -9802,7 +9796,7 @@
       <c r="G334" s="26"/>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="41"/>
+      <c r="A335" s="39"/>
       <c r="B335" s="14" t="s">
         <v>597</v>
       </c>
@@ -9819,7 +9813,7 @@
       <c r="G335" s="26"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="41"/>
+      <c r="A336" s="39"/>
       <c r="B336" s="14" t="s">
         <v>422</v>
       </c>
@@ -9838,7 +9832,7 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="41"/>
+      <c r="A337" s="39"/>
       <c r="B337" s="14" t="s">
         <v>413</v>
       </c>
@@ -9855,7 +9849,7 @@
       <c r="G337" s="26"/>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="41"/>
+      <c r="A338" s="39"/>
       <c r="B338" s="14" t="s">
         <v>414</v>
       </c>
@@ -9870,7 +9864,7 @@
       <c r="G338" s="26"/>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="41"/>
+      <c r="A339" s="39"/>
       <c r="B339" s="14" t="s">
         <v>415</v>
       </c>
@@ -9887,7 +9881,7 @@
       <c r="G339" s="26"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="41"/>
+      <c r="A340" s="39"/>
       <c r="B340" s="14" t="s">
         <v>423</v>
       </c>
@@ -9902,7 +9896,7 @@
       <c r="G340" s="26"/>
     </row>
     <row r="341" spans="1:7">
-      <c r="A341" s="41"/>
+      <c r="A341" s="39"/>
       <c r="B341" s="14" t="s">
         <v>424</v>
       </c>
@@ -9919,7 +9913,7 @@
       <c r="G341" s="26"/>
     </row>
     <row r="342" spans="1:7">
-      <c r="A342" s="40" t="s">
+      <c r="A342" s="38" t="s">
         <v>598</v>
       </c>
       <c r="B342" s="19"/>
@@ -9934,7 +9928,7 @@
       <c r="G342" s="23"/>
     </row>
     <row r="343" spans="1:7">
-      <c r="A343" s="41"/>
+      <c r="A343" s="39"/>
       <c r="B343" s="14" t="s">
         <v>599</v>
       </c>
@@ -9953,7 +9947,7 @@
       <c r="G343" s="26"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="41"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="14" t="s">
         <v>600</v>
       </c>
@@ -9970,7 +9964,7 @@
       <c r="G344" s="34"/>
     </row>
     <row r="345" spans="1:7">
-      <c r="A345" s="41"/>
+      <c r="A345" s="39"/>
       <c r="B345" s="14" t="s">
         <v>422</v>
       </c>
@@ -9989,7 +9983,7 @@
       </c>
     </row>
     <row r="346" spans="1:7">
-      <c r="A346" s="42" t="s">
+      <c r="A346" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B346" s="14" t="s">
@@ -10006,7 +10000,7 @@
       <c r="G346" s="33"/>
     </row>
     <row r="347" spans="1:7">
-      <c r="A347" s="42" t="s">
+      <c r="A347" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B347" s="14" t="s">
@@ -10025,7 +10019,7 @@
       <c r="G347" s="33"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="42"/>
+      <c r="A348" s="40"/>
       <c r="B348" s="14" t="s">
         <v>423</v>
       </c>
@@ -10040,7 +10034,7 @@
       <c r="G348" s="33"/>
     </row>
     <row r="349" spans="1:7">
-      <c r="A349" s="42"/>
+      <c r="A349" s="40"/>
       <c r="B349" s="14" t="s">
         <v>424</v>
       </c>
@@ -10057,7 +10051,7 @@
       <c r="G349" s="33"/>
     </row>
     <row r="350" spans="1:7">
-      <c r="A350" s="40" t="s">
+      <c r="A350" s="38" t="s">
         <v>601</v>
       </c>
       <c r="B350" s="19"/>
@@ -10072,7 +10066,7 @@
       <c r="G350" s="23"/>
     </row>
     <row r="351" spans="1:7">
-      <c r="A351" s="41"/>
+      <c r="A351" s="39"/>
       <c r="B351" s="14" t="s">
         <v>602</v>
       </c>
@@ -10091,7 +10085,7 @@
       <c r="G351" s="26"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="41"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="14" t="s">
         <v>603</v>
       </c>
@@ -10108,7 +10102,7 @@
       <c r="G352" s="34"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" s="41"/>
+      <c r="A353" s="39"/>
       <c r="B353" s="14" t="s">
         <v>599</v>
       </c>
@@ -10127,7 +10121,7 @@
       <c r="G353" s="26"/>
     </row>
     <row r="354" spans="1:7">
-      <c r="A354" s="41"/>
+      <c r="A354" s="39"/>
       <c r="B354" s="14" t="s">
         <v>422</v>
       </c>
@@ -10146,7 +10140,7 @@
       </c>
     </row>
     <row r="355" spans="1:7">
-      <c r="A355" s="41"/>
+      <c r="A355" s="39"/>
       <c r="B355" s="14" t="s">
         <v>413</v>
       </c>
@@ -10163,7 +10157,7 @@
       <c r="G355" s="26"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="41"/>
+      <c r="A356" s="39"/>
       <c r="B356" s="14" t="s">
         <v>414</v>
       </c>
@@ -10178,7 +10172,7 @@
       <c r="G356" s="26"/>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" s="41"/>
+      <c r="A357" s="39"/>
       <c r="B357" s="14" t="s">
         <v>415</v>
       </c>
@@ -10195,7 +10189,7 @@
       <c r="G357" s="26"/>
     </row>
     <row r="358" spans="1:7">
-      <c r="A358" s="41"/>
+      <c r="A358" s="39"/>
       <c r="B358" s="14" t="s">
         <v>423</v>
       </c>
@@ -10210,7 +10204,7 @@
       <c r="G358" s="26"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" s="41"/>
+      <c r="A359" s="39"/>
       <c r="B359" s="14" t="s">
         <v>424</v>
       </c>
@@ -10227,7 +10221,7 @@
       <c r="G359" s="26"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="40" t="s">
+      <c r="A360" s="38" t="s">
         <v>610</v>
       </c>
       <c r="B360" s="19"/>
@@ -10242,7 +10236,7 @@
       <c r="G360" s="23"/>
     </row>
     <row r="361" spans="1:7">
-      <c r="A361" s="41"/>
+      <c r="A361" s="39"/>
       <c r="B361" s="14" t="s">
         <v>604</v>
       </c>
@@ -10261,7 +10255,7 @@
       </c>
     </row>
     <row r="362" spans="1:7">
-      <c r="A362" s="41"/>
+      <c r="A362" s="39"/>
       <c r="B362" s="14" t="s">
         <v>605</v>
       </c>
@@ -10276,7 +10270,7 @@
       <c r="G362" s="26"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="41"/>
+      <c r="A363" s="39"/>
       <c r="B363" s="14" t="s">
         <v>606</v>
       </c>
@@ -10291,7 +10285,7 @@
       <c r="G363" s="26"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="41"/>
+      <c r="A364" s="39"/>
       <c r="B364" s="14" t="s">
         <v>607</v>
       </c>
@@ -10306,7 +10300,7 @@
       <c r="G364" s="26"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="41"/>
+      <c r="A365" s="39"/>
       <c r="B365" s="14" t="s">
         <v>427</v>
       </c>
@@ -10325,7 +10319,7 @@
       <c r="G365" s="26"/>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="41"/>
+      <c r="A366" s="39"/>
       <c r="B366" s="14" t="s">
         <v>602</v>
       </c>
@@ -10344,7 +10338,7 @@
       <c r="G366" s="26"/>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="42" t="s">
+      <c r="A367" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B367" s="14" t="s">
@@ -10363,7 +10357,7 @@
       <c r="G367" s="33"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="42" t="s">
+      <c r="A368" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B368" s="14" t="s">
@@ -10382,7 +10376,7 @@
       <c r="G368" s="33"/>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="42"/>
+      <c r="A369" s="40"/>
       <c r="B369" s="14" t="s">
         <v>413</v>
       </c>
@@ -10399,7 +10393,7 @@
       <c r="G369" s="33"/>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="42"/>
+      <c r="A370" s="40"/>
       <c r="B370" s="14" t="s">
         <v>414</v>
       </c>
@@ -10414,7 +10408,7 @@
       <c r="G370" s="33"/>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="42"/>
+      <c r="A371" s="40"/>
       <c r="B371" s="14" t="s">
         <v>415</v>
       </c>
@@ -10431,7 +10425,7 @@
       <c r="G371" s="33"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="42" t="s">
+      <c r="A372" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B372" s="14" t="s">
@@ -10448,7 +10442,7 @@
       <c r="G372" s="33"/>
     </row>
     <row r="373" spans="1:7">
-      <c r="A373" s="42" t="s">
+      <c r="A373" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B373" s="14" t="s">
@@ -10467,7 +10461,7 @@
       <c r="G373" s="33"/>
     </row>
     <row r="374" spans="1:7">
-      <c r="A374" s="40" t="s">
+      <c r="A374" s="38" t="s">
         <v>611</v>
       </c>
       <c r="B374" s="19"/>
@@ -10482,7 +10476,7 @@
       <c r="G374" s="23"/>
     </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="41"/>
+      <c r="A375" s="39"/>
       <c r="B375" s="14" t="s">
         <v>493</v>
       </c>
@@ -10501,7 +10495,7 @@
       <c r="G375" s="26"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="41"/>
+      <c r="A376" s="39"/>
       <c r="B376" s="14" t="s">
         <v>612</v>
       </c>
@@ -10518,7 +10512,7 @@
       <c r="G376" s="26"/>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="41"/>
+      <c r="A377" s="39"/>
       <c r="B377" s="14" t="s">
         <v>613</v>
       </c>
@@ -10535,7 +10529,7 @@
       <c r="G377" s="26"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="41"/>
+      <c r="A378" s="39"/>
       <c r="B378" s="14" t="s">
         <v>614</v>
       </c>
@@ -10552,7 +10546,7 @@
       <c r="G378" s="26"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="41"/>
+      <c r="A379" s="39"/>
       <c r="B379" s="14" t="s">
         <v>615</v>
       </c>
@@ -10569,7 +10563,7 @@
       <c r="G379" s="26"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="41"/>
+      <c r="A380" s="39"/>
       <c r="B380" s="14" t="s">
         <v>616</v>
       </c>
@@ -10586,7 +10580,7 @@
       <c r="G380" s="26"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="41"/>
+      <c r="A381" s="39"/>
       <c r="B381" s="14" t="s">
         <v>617</v>
       </c>
@@ -10605,7 +10599,7 @@
       </c>
     </row>
     <row r="382" spans="1:7">
-      <c r="A382" s="41"/>
+      <c r="A382" s="39"/>
       <c r="B382" s="14" t="s">
         <v>618</v>
       </c>
@@ -10624,7 +10618,7 @@
       </c>
     </row>
     <row r="383" spans="1:7">
-      <c r="A383" s="41"/>
+      <c r="A383" s="39"/>
       <c r="B383" s="14" t="s">
         <v>619</v>
       </c>
@@ -10639,7 +10633,7 @@
       <c r="G383" s="26"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="41"/>
+      <c r="A384" s="39"/>
       <c r="B384" s="14" t="s">
         <v>620</v>
       </c>
@@ -10658,7 +10652,7 @@
       </c>
     </row>
     <row r="385" spans="1:7">
-      <c r="A385" s="41"/>
+      <c r="A385" s="39"/>
       <c r="B385" s="14" t="s">
         <v>621</v>
       </c>
@@ -10677,7 +10671,7 @@
       </c>
     </row>
     <row r="386" spans="1:7">
-      <c r="A386" s="41"/>
+      <c r="A386" s="39"/>
       <c r="B386" s="14" t="s">
         <v>622</v>
       </c>
@@ -10696,7 +10690,7 @@
       </c>
     </row>
     <row r="387" spans="1:7">
-      <c r="A387" s="41"/>
+      <c r="A387" s="39"/>
       <c r="B387" s="14" t="s">
         <v>422</v>
       </c>
@@ -10715,7 +10709,7 @@
       </c>
     </row>
     <row r="388" spans="1:7">
-      <c r="A388" s="41"/>
+      <c r="A388" s="39"/>
       <c r="B388" s="14" t="s">
         <v>623</v>
       </c>
@@ -10732,7 +10726,7 @@
       <c r="G388" s="26"/>
     </row>
     <row r="389" spans="1:7">
-      <c r="A389" s="41"/>
+      <c r="A389" s="39"/>
       <c r="B389" s="14" t="s">
         <v>624</v>
       </c>
@@ -10749,7 +10743,7 @@
       <c r="G389" s="26"/>
     </row>
     <row r="390" spans="1:7">
-      <c r="A390" s="41"/>
+      <c r="A390" s="39"/>
       <c r="B390" s="14" t="s">
         <v>625</v>
       </c>
@@ -10766,7 +10760,7 @@
       <c r="G390" s="26"/>
     </row>
     <row r="391" spans="1:7">
-      <c r="A391" s="41"/>
+      <c r="A391" s="39"/>
       <c r="B391" s="14" t="s">
         <v>626</v>
       </c>
@@ -10783,7 +10777,7 @@
       <c r="G391" s="26"/>
     </row>
     <row r="392" spans="1:7">
-      <c r="A392" s="42" t="s">
+      <c r="A392" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B392" s="14" t="s">
@@ -10802,7 +10796,7 @@
       <c r="G392" s="26"/>
     </row>
     <row r="393" spans="1:7">
-      <c r="A393" s="42" t="s">
+      <c r="A393" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B393" s="14" t="s">
@@ -10821,7 +10815,7 @@
       <c r="G393" s="26"/>
     </row>
     <row r="394" spans="1:7">
-      <c r="A394" s="42"/>
+      <c r="A394" s="40"/>
       <c r="B394" s="14" t="s">
         <v>629</v>
       </c>
@@ -10838,7 +10832,7 @@
       <c r="G394" s="26"/>
     </row>
     <row r="395" spans="1:7">
-      <c r="A395" s="42"/>
+      <c r="A395" s="40"/>
       <c r="B395" s="14" t="s">
         <v>630</v>
       </c>
@@ -10855,7 +10849,7 @@
       <c r="G395" s="26"/>
     </row>
     <row r="396" spans="1:7">
-      <c r="A396" s="42"/>
+      <c r="A396" s="40"/>
       <c r="B396" s="14" t="s">
         <v>631</v>
       </c>
@@ -10872,7 +10866,7 @@
       <c r="G396" s="26"/>
     </row>
     <row r="397" spans="1:7">
-      <c r="A397" s="42" t="s">
+      <c r="A397" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B397" s="14" t="s">
@@ -10891,7 +10885,7 @@
       <c r="G397" s="26"/>
     </row>
     <row r="398" spans="1:7">
-      <c r="A398" s="42" t="s">
+      <c r="A398" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B398" s="14" t="s">
@@ -10910,7 +10904,7 @@
       <c r="G398" s="26"/>
     </row>
     <row r="399" spans="1:7">
-      <c r="A399" s="42"/>
+      <c r="A399" s="40"/>
       <c r="B399" s="14" t="s">
         <v>634</v>
       </c>
@@ -10927,7 +10921,7 @@
       <c r="G399" s="26"/>
     </row>
     <row r="400" spans="1:7">
-      <c r="A400" s="42"/>
+      <c r="A400" s="40"/>
       <c r="B400" s="14" t="s">
         <v>414</v>
       </c>
@@ -10942,7 +10936,7 @@
       <c r="G400" s="26"/>
     </row>
     <row r="401" spans="1:7">
-      <c r="A401" s="42"/>
+      <c r="A401" s="40"/>
       <c r="B401" s="14" t="s">
         <v>415</v>
       </c>
@@ -10959,7 +10953,7 @@
       <c r="G401" s="26"/>
     </row>
     <row r="402" spans="1:7">
-      <c r="A402" s="42"/>
+      <c r="A402" s="40"/>
       <c r="B402" s="14" t="s">
         <v>423</v>
       </c>
@@ -10974,7 +10968,7 @@
       <c r="G402" s="26"/>
     </row>
     <row r="403" spans="1:7">
-      <c r="A403" s="42"/>
+      <c r="A403" s="40"/>
       <c r="B403" s="14" t="s">
         <v>424</v>
       </c>
@@ -10991,7 +10985,7 @@
       <c r="G403" s="33"/>
     </row>
     <row r="404" spans="1:7">
-      <c r="A404" s="40" t="s">
+      <c r="A404" s="38" t="s">
         <v>635</v>
       </c>
       <c r="B404" s="19"/>
@@ -11004,7 +10998,7 @@
       <c r="G404" s="23"/>
     </row>
     <row r="405" spans="1:7">
-      <c r="A405" s="41"/>
+      <c r="A405" s="39"/>
       <c r="B405" s="14" t="s">
         <v>636</v>
       </c>
@@ -11023,7 +11017,7 @@
       <c r="G405" s="26"/>
     </row>
     <row r="406" spans="1:7">
-      <c r="A406" s="41"/>
+      <c r="A406" s="39"/>
       <c r="B406" s="14" t="s">
         <v>493</v>
       </c>
@@ -11042,7 +11036,7 @@
       <c r="G406" s="26"/>
     </row>
     <row r="407" spans="1:7">
-      <c r="A407" s="41"/>
+      <c r="A407" s="39"/>
       <c r="B407" s="14" t="s">
         <v>414</v>
       </c>
@@ -11057,7 +11051,7 @@
       <c r="G407" s="26"/>
     </row>
     <row r="408" spans="1:7">
-      <c r="A408" s="41"/>
+      <c r="A408" s="39"/>
       <c r="B408" s="14" t="s">
         <v>415</v>
       </c>
@@ -11074,7 +11068,7 @@
       <c r="G408" s="26"/>
     </row>
     <row r="409" spans="1:7">
-      <c r="A409" s="41"/>
+      <c r="A409" s="39"/>
       <c r="B409" s="14" t="s">
         <v>423</v>
       </c>
@@ -11089,7 +11083,7 @@
       <c r="G409" s="26"/>
     </row>
     <row r="410" spans="1:7">
-      <c r="A410" s="41"/>
+      <c r="A410" s="39"/>
       <c r="B410" s="14" t="s">
         <v>424</v>
       </c>
@@ -11106,7 +11100,7 @@
       <c r="G410" s="26"/>
     </row>
     <row r="411" spans="1:7">
-      <c r="A411" s="40" t="s">
+      <c r="A411" s="38" t="s">
         <v>637</v>
       </c>
       <c r="B411" s="19"/>
@@ -11119,7 +11113,7 @@
       <c r="G411" s="23"/>
     </row>
     <row r="412" spans="1:7">
-      <c r="A412" s="41"/>
+      <c r="A412" s="39"/>
       <c r="B412" s="14" t="s">
         <v>636</v>
       </c>
@@ -11138,7 +11132,7 @@
       <c r="G412" s="26"/>
     </row>
     <row r="413" spans="1:7">
-      <c r="A413" s="41"/>
+      <c r="A413" s="39"/>
       <c r="B413" s="14" t="s">
         <v>638</v>
       </c>
@@ -11155,7 +11149,7 @@
       <c r="G413" s="26"/>
     </row>
     <row r="414" spans="1:7">
-      <c r="A414" s="41"/>
+      <c r="A414" s="39"/>
       <c r="B414" s="14" t="s">
         <v>639</v>
       </c>
@@ -11172,7 +11166,7 @@
       <c r="G414" s="26"/>
     </row>
     <row r="415" spans="1:7">
-      <c r="A415" s="41"/>
+      <c r="A415" s="39"/>
       <c r="B415" s="14" t="s">
         <v>422</v>
       </c>
@@ -11191,7 +11185,7 @@
       </c>
     </row>
     <row r="416" spans="1:7">
-      <c r="A416" s="41"/>
+      <c r="A416" s="39"/>
       <c r="B416" s="14" t="s">
         <v>414</v>
       </c>
@@ -11206,7 +11200,7 @@
       <c r="G416" s="26"/>
     </row>
     <row r="417" spans="1:7">
-      <c r="A417" s="41"/>
+      <c r="A417" s="39"/>
       <c r="B417" s="14" t="s">
         <v>415</v>
       </c>
@@ -11223,7 +11217,7 @@
       <c r="G417" s="26"/>
     </row>
     <row r="418" spans="1:7">
-      <c r="A418" s="41"/>
+      <c r="A418" s="39"/>
       <c r="B418" s="14" t="s">
         <v>423</v>
       </c>
@@ -11238,7 +11232,7 @@
       <c r="G418" s="26"/>
     </row>
     <row r="419" spans="1:7">
-      <c r="A419" s="41"/>
+      <c r="A419" s="39"/>
       <c r="B419" s="14" t="s">
         <v>424</v>
       </c>
@@ -11255,7 +11249,7 @@
       <c r="G419" s="26"/>
     </row>
     <row r="420" spans="1:7">
-      <c r="A420" s="40" t="s">
+      <c r="A420" s="38" t="s">
         <v>640</v>
       </c>
       <c r="B420" s="19"/>
@@ -11268,7 +11262,7 @@
       <c r="G420" s="23"/>
     </row>
     <row r="421" spans="1:7">
-      <c r="A421" s="41"/>
+      <c r="A421" s="39"/>
       <c r="B421" s="14" t="s">
         <v>641</v>
       </c>
@@ -11287,7 +11281,7 @@
       <c r="G421" s="26"/>
     </row>
     <row r="422" spans="1:7">
-      <c r="A422" s="41"/>
+      <c r="A422" s="39"/>
       <c r="B422" s="14" t="s">
         <v>642</v>
       </c>
@@ -11304,7 +11298,7 @@
       <c r="G422" s="26"/>
     </row>
     <row r="423" spans="1:7">
-      <c r="A423" s="41"/>
+      <c r="A423" s="39"/>
       <c r="B423" s="14" t="s">
         <v>643</v>
       </c>
@@ -11321,7 +11315,7 @@
       <c r="G423" s="26"/>
     </row>
     <row r="424" spans="1:7">
-      <c r="A424" s="41"/>
+      <c r="A424" s="39"/>
       <c r="B424" s="14" t="s">
         <v>413</v>
       </c>
@@ -11338,7 +11332,7 @@
       <c r="G424" s="26"/>
     </row>
     <row r="425" spans="1:7">
-      <c r="A425" s="41" t="s">
+      <c r="A425" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B425" s="14" t="s">
@@ -11359,7 +11353,7 @@
       </c>
     </row>
     <row r="426" spans="1:7">
-      <c r="A426" s="41"/>
+      <c r="A426" s="39"/>
       <c r="B426" s="14" t="s">
         <v>414</v>
       </c>
@@ -11374,7 +11368,7 @@
       <c r="G426" s="26"/>
     </row>
     <row r="427" spans="1:7">
-      <c r="A427" s="41" t="s">
+      <c r="A427" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B427" s="14" t="s">
@@ -11393,7 +11387,7 @@
       <c r="G427" s="26"/>
     </row>
     <row r="428" spans="1:7">
-      <c r="A428" s="42" t="s">
+      <c r="A428" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B428" s="14" t="s">
@@ -11410,7 +11404,7 @@
       <c r="G428" s="33"/>
     </row>
     <row r="429" spans="1:7">
-      <c r="A429" s="42" t="s">
+      <c r="A429" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B429" s="14" t="s">
@@ -11429,7 +11423,7 @@
       <c r="G429" s="33"/>
     </row>
     <row r="430" spans="1:7">
-      <c r="A430" s="40" t="s">
+      <c r="A430" s="38" t="s">
         <v>644</v>
       </c>
       <c r="B430" s="19"/>
@@ -11444,7 +11438,7 @@
       <c r="G430" s="23"/>
     </row>
     <row r="431" spans="1:7">
-      <c r="A431" s="41"/>
+      <c r="A431" s="39"/>
       <c r="B431" s="14" t="s">
         <v>645</v>
       </c>
@@ -11463,7 +11457,7 @@
       <c r="G431" s="26"/>
     </row>
     <row r="432" spans="1:7">
-      <c r="A432" s="41"/>
+      <c r="A432" s="39"/>
       <c r="B432" s="14" t="s">
         <v>641</v>
       </c>
@@ -11482,7 +11476,7 @@
       <c r="G432" s="34"/>
     </row>
     <row r="433" spans="1:7">
-      <c r="A433" s="41"/>
+      <c r="A433" s="39"/>
       <c r="B433" s="14" t="s">
         <v>646</v>
       </c>
@@ -11499,7 +11493,7 @@
       <c r="G433" s="26"/>
     </row>
     <row r="434" spans="1:7">
-      <c r="A434" s="41"/>
+      <c r="A434" s="39"/>
       <c r="B434" s="14" t="s">
         <v>529</v>
       </c>
@@ -11514,7 +11508,7 @@
       <c r="G434" s="26"/>
     </row>
     <row r="435" spans="1:7">
-      <c r="A435" s="41"/>
+      <c r="A435" s="39"/>
       <c r="B435" s="14" t="s">
         <v>413</v>
       </c>
@@ -11531,7 +11525,7 @@
       <c r="G435" s="26"/>
     </row>
     <row r="436" spans="1:7">
-      <c r="A436" s="41"/>
+      <c r="A436" s="39"/>
       <c r="B436" s="14" t="s">
         <v>422</v>
       </c>
@@ -11550,7 +11544,7 @@
       </c>
     </row>
     <row r="437" spans="1:7">
-      <c r="A437" s="41"/>
+      <c r="A437" s="39"/>
       <c r="B437" s="14" t="s">
         <v>414</v>
       </c>
@@ -11565,7 +11559,7 @@
       <c r="G437" s="26"/>
     </row>
     <row r="438" spans="1:7">
-      <c r="A438" s="41"/>
+      <c r="A438" s="39"/>
       <c r="B438" s="14" t="s">
         <v>415</v>
       </c>
@@ -11582,7 +11576,7 @@
       <c r="G438" s="26"/>
     </row>
     <row r="439" spans="1:7">
-      <c r="A439" s="41"/>
+      <c r="A439" s="39"/>
       <c r="B439" s="14" t="s">
         <v>423</v>
       </c>
@@ -11597,7 +11591,7 @@
       <c r="G439" s="26"/>
     </row>
     <row r="440" spans="1:7">
-      <c r="A440" s="41"/>
+      <c r="A440" s="39"/>
       <c r="B440" s="14" t="s">
         <v>424</v>
       </c>
@@ -14871,7 +14865,7 @@
         <v>10</v>
       </c>
       <c r="F630" s="25" t="s">
-        <v>431</v>
+        <v>796</v>
       </c>
       <c r="G630" s="34"/>
     </row>
@@ -16696,21 +16690,159 @@
       <c r="G737" s="33"/>
     </row>
     <row r="738" spans="1:7">
-      <c r="A738" s="35"/>
-      <c r="B738" s="36" t="s">
+      <c r="A738" s="12"/>
+      <c r="B738" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C738" s="36" t="s">
+      <c r="C738" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D738" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="E738" s="37">
-        <v>20</v>
-      </c>
-      <c r="F738" s="38"/>
-      <c r="G738" s="39"/>
+      <c r="D738" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E738" s="25">
+        <v>20</v>
+      </c>
+      <c r="F738" s="15"/>
+      <c r="G738" s="17"/>
+    </row>
+    <row r="739" spans="1:7">
+      <c r="A739" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B739" s="19"/>
+      <c r="C739" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="D739" s="21"/>
+      <c r="E739" s="22">
+        <v>0</v>
+      </c>
+      <c r="F739" s="22"/>
+      <c r="G739" s="23"/>
+    </row>
+    <row r="740" spans="1:7">
+      <c r="A740" s="13"/>
+      <c r="B740" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C740" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D740" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E740" s="25">
+        <v>10</v>
+      </c>
+      <c r="F740" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G740" s="17"/>
+    </row>
+    <row r="741" spans="1:7">
+      <c r="A741" s="13"/>
+      <c r="B741" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C741" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D741" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E741" s="25">
+        <v>20</v>
+      </c>
+      <c r="F741" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="G741" s="17"/>
+    </row>
+    <row r="742" spans="1:7">
+      <c r="A742" s="13"/>
+      <c r="B742" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C742" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D742" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E742" s="25">
+        <v>20</v>
+      </c>
+      <c r="F742" s="25"/>
+      <c r="G742" s="17"/>
+    </row>
+    <row r="743" spans="1:7">
+      <c r="A743" s="13"/>
+      <c r="B743" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="C743" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D743" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E743" s="25">
+        <v>20</v>
+      </c>
+      <c r="F743" s="25"/>
+      <c r="G743" s="17"/>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" s="13"/>
+      <c r="B744" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C744" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D744" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E744" s="25">
+        <v>20</v>
+      </c>
+      <c r="F744" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="G744" s="17"/>
+    </row>
+    <row r="745" spans="1:7">
+      <c r="A745" s="13"/>
+      <c r="B745" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C745" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D745" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E745" s="25">
+        <v>100</v>
+      </c>
+      <c r="F745" s="25"/>
+      <c r="G745" s="17"/>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" s="50"/>
+      <c r="B746" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="C746" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D746" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="E746" s="36"/>
+      <c r="F746" s="36"/>
+      <c r="G746" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/source/참고파일/실습용_테이블레이아웃 (1).xlsx
+++ b/source/참고파일/실습용_테이블레이아웃 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\참고파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4684A7-B94E-46DE-A447-B16D828CC60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAF5F2-E24A-4403-87AC-4C5D74A17FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-10830" yWindow="5340" windowWidth="17265" windowHeight="11385" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상세테이블내역" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="838">
   <si>
     <r>
       <t>업</t>
@@ -3402,12 +3402,16 @@
     <t>팔레트</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>** : 한시간에 한번 씩 찍어주기 (Service)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3883,6 +3887,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3909,9 +3916,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4196,11 +4200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G466" sqref="G466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
@@ -4211,59 +4215,59 @@
     <col min="7" max="7" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A2" s="42" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -4299,7 +4303,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>409</v>
@@ -4318,7 +4322,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>410</v>
@@ -4335,7 +4339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>411</v>
@@ -4354,7 +4358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>412</v>
@@ -4373,7 +4377,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>413</v>
@@ -4392,7 +4396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>414</v>
@@ -4411,7 +4415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>415</v>
@@ -4428,7 +4432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>418</v>
       </c>
@@ -4441,7 +4445,7 @@
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="14" t="s">
         <v>419</v>
@@ -4460,7 +4464,7 @@
       </c>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>420</v>
@@ -4477,7 +4481,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="14" t="s">
         <v>421</v>
@@ -4494,7 +4498,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="14" t="s">
         <v>422</v>
@@ -4513,7 +4517,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="14" t="s">
         <v>413</v>
@@ -4530,7 +4534,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="14" t="s">
         <v>414</v>
@@ -4545,7 +4549,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="14" t="s">
         <v>415</v>
@@ -4562,7 +4566,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="14" t="s">
         <v>423</v>
@@ -4577,7 +4581,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="14" t="s">
         <v>424</v>
@@ -4594,7 +4598,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>425</v>
       </c>
@@ -4607,7 +4611,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="27" t="s">
         <v>419</v>
@@ -4626,7 +4630,7 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="27" t="s">
         <v>426</v>
@@ -4645,7 +4649,7 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="27" t="s">
         <v>427</v>
@@ -4662,7 +4666,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="27" t="s">
         <v>428</v>
@@ -4679,7 +4683,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="27" t="s">
         <v>429</v>
@@ -4698,7 +4702,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="27" t="s">
         <v>430</v>
@@ -4715,7 +4719,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="27" t="s">
         <v>413</v>
@@ -4732,7 +4736,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="14" t="s">
         <v>414</v>
@@ -4747,7 +4751,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="14" t="s">
         <v>415</v>
@@ -4764,7 +4768,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="14" t="s">
         <v>423</v>
@@ -4779,7 +4783,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="14" t="s">
         <v>424</v>
@@ -4796,7 +4800,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>437</v>
       </c>
@@ -4809,7 +4813,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="27" t="s">
         <v>409</v>
@@ -4828,7 +4832,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="27" t="s">
         <v>432</v>
@@ -4843,7 +4847,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="27" t="s">
         <v>427</v>
@@ -4860,7 +4864,7 @@
       <c r="F39" s="15"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="27" t="s">
         <v>433</v>
@@ -4875,7 +4879,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="27" t="s">
         <v>434</v>
@@ -4890,7 +4894,7 @@
       <c r="F41" s="15"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="27" t="s">
         <v>413</v>
@@ -4907,7 +4911,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="14" t="s">
         <v>414</v>
@@ -4922,7 +4926,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="14" t="s">
         <v>415</v>
@@ -4939,7 +4943,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="14" t="s">
         <v>423</v>
@@ -4954,7 +4958,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="14" t="s">
         <v>424</v>
@@ -4971,7 +4975,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>438</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="27" t="s">
         <v>436</v>
@@ -5003,7 +5007,7 @@
       </c>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="27" t="s">
         <v>439</v>
@@ -5022,7 +5026,7 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="27" t="s">
         <v>440</v>
@@ -5041,7 +5045,7 @@
       </c>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="27" t="s">
         <v>441</v>
@@ -5058,7 +5062,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="27" t="s">
         <v>442</v>
@@ -5075,7 +5079,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="27" t="s">
         <v>443</v>
@@ -5092,7 +5096,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="27" t="s">
         <v>54</v>
@@ -5109,7 +5113,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="27" t="s">
         <v>444</v>
@@ -5126,7 +5130,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
       <c r="B56" s="27" t="s">
         <v>445</v>
@@ -5141,7 +5145,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="27" t="s">
         <v>446</v>
@@ -5158,7 +5162,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="27" t="s">
         <v>422</v>
@@ -5177,7 +5181,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
       <c r="B59" s="27" t="s">
         <v>413</v>
@@ -5194,7 +5198,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
       <c r="B60" s="14" t="s">
         <v>414</v>
@@ -5209,7 +5213,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
       <c r="B61" s="14" t="s">
         <v>415</v>
@@ -5226,7 +5230,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
       <c r="B62" s="14" t="s">
         <v>423</v>
@@ -5241,7 +5245,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" s="14" t="s">
         <v>424</v>
@@ -5258,7 +5262,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>453</v>
       </c>
@@ -5271,7 +5275,7 @@
       <c r="F64" s="22"/>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="27" t="s">
         <v>452</v>
@@ -5290,7 +5294,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="27" t="s">
         <v>454</v>
@@ -5309,7 +5313,7 @@
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="27" t="s">
         <v>439</v>
@@ -5328,7 +5332,7 @@
       </c>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="27" t="s">
         <v>440</v>
@@ -5347,7 +5351,7 @@
       </c>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
       <c r="B69" s="27" t="s">
         <v>456</v>
@@ -5362,7 +5366,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="27" t="s">
         <v>455</v>
@@ -5377,7 +5381,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="27" t="s">
         <v>457</v>
@@ -5394,7 +5398,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
       <c r="B72" s="27" t="s">
         <v>458</v>
@@ -5413,7 +5417,7 @@
       </c>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
       <c r="B73" s="14" t="s">
         <v>414</v>
@@ -5428,7 +5432,7 @@
       <c r="F73" s="15"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
       <c r="B74" s="14" t="s">
         <v>415</v>
@@ -5445,7 +5449,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
       <c r="B75" s="14" t="s">
         <v>423</v>
@@ -5460,7 +5464,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
       <c r="B76" s="14" t="s">
         <v>424</v>
@@ -5477,7 +5481,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>460</v>
       </c>
@@ -5490,7 +5494,7 @@
       <c r="F77" s="22"/>
       <c r="G77" s="23"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
       <c r="B78" s="27" t="s">
         <v>439</v>
@@ -5509,7 +5513,7 @@
       </c>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
       <c r="B79" s="27" t="s">
         <v>461</v>
@@ -5526,7 +5530,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
       <c r="B80" s="27" t="s">
         <v>462</v>
@@ -5543,7 +5547,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
       <c r="B81" s="27" t="s">
         <v>422</v>
@@ -5562,7 +5566,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
       <c r="B82" s="27" t="s">
         <v>413</v>
@@ -5579,7 +5583,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
       <c r="B83" s="14" t="s">
         <v>414</v>
@@ -5594,7 +5598,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="17"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
       <c r="B84" s="14" t="s">
         <v>415</v>
@@ -5611,7 +5615,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
       <c r="B85" s="14" t="s">
         <v>423</v>
@@ -5626,7 +5630,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="17"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="14" t="s">
         <v>424</v>
@@ -5643,7 +5647,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>467</v>
       </c>
@@ -5656,7 +5660,7 @@
       <c r="F87" s="22"/>
       <c r="G87" s="23"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
       <c r="B88" s="27" t="s">
         <v>436</v>
@@ -5675,7 +5679,7 @@
       </c>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="12"/>
       <c r="B89" s="27" t="s">
         <v>427</v>
@@ -5694,7 +5698,7 @@
       </c>
       <c r="G89" s="17"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="27" t="s">
         <v>468</v>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
       <c r="B91" s="27" t="s">
         <v>469</v>
@@ -5730,7 +5734,7 @@
       <c r="F91" s="15"/>
       <c r="G91" s="17"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
       <c r="B92" s="27" t="s">
         <v>442</v>
@@ -5747,7 +5751,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
       <c r="B93" s="27" t="s">
         <v>470</v>
@@ -5764,7 +5768,7 @@
       <c r="F93" s="15"/>
       <c r="G93" s="17"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
       <c r="B94" s="27" t="s">
         <v>443</v>
@@ -5781,7 +5785,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="12"/>
       <c r="B95" s="27" t="s">
         <v>444</v>
@@ -5798,7 +5802,7 @@
       <c r="F95" s="15"/>
       <c r="G95" s="17"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
       <c r="B96" s="27" t="s">
         <v>471</v>
@@ -5815,7 +5819,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="12"/>
       <c r="B97" s="27" t="s">
         <v>472</v>
@@ -5832,7 +5836,7 @@
       <c r="F97" s="15"/>
       <c r="G97" s="17"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="12"/>
       <c r="B98" s="27" t="s">
         <v>413</v>
@@ -5849,7 +5853,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
       <c r="B99" s="14" t="s">
         <v>414</v>
@@ -5864,7 +5868,7 @@
       <c r="F99" s="15"/>
       <c r="G99" s="17"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="12"/>
       <c r="B100" s="14" t="s">
         <v>415</v>
@@ -5881,7 +5885,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
       <c r="B101" s="14" t="s">
         <v>423</v>
@@ -5896,7 +5900,7 @@
       <c r="F101" s="15"/>
       <c r="G101" s="17"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="B102" s="14" t="s">
         <v>424</v>
@@ -5913,7 +5917,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
         <v>473</v>
       </c>
@@ -5926,7 +5930,7 @@
       <c r="F103" s="22"/>
       <c r="G103" s="23"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
       <c r="B104" s="27" t="s">
         <v>474</v>
@@ -5945,7 +5949,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="12"/>
       <c r="B105" s="27" t="s">
         <v>454</v>
@@ -5964,7 +5968,7 @@
       </c>
       <c r="G105" s="17"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="12"/>
       <c r="B106" s="27" t="s">
         <v>427</v>
@@ -5983,7 +5987,7 @@
       </c>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="12"/>
       <c r="B107" s="14" t="s">
         <v>468</v>
@@ -6002,7 +6006,7 @@
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="12"/>
       <c r="B108" s="14" t="s">
         <v>475</v>
@@ -6017,7 +6021,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
       <c r="B109" s="14" t="s">
         <v>476</v>
@@ -6032,7 +6036,7 @@
       <c r="F109" s="15"/>
       <c r="G109" s="17"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
       <c r="B110" s="14" t="s">
         <v>477</v>
@@ -6049,7 +6053,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
       <c r="B111" s="14" t="s">
         <v>458</v>
@@ -6068,7 +6072,7 @@
       </c>
       <c r="G111" s="17"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
       <c r="B112" s="14" t="s">
         <v>414</v>
@@ -6083,7 +6087,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
       <c r="B113" s="14" t="s">
         <v>415</v>
@@ -6100,7 +6104,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="17"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
       <c r="B114" s="14" t="s">
         <v>423</v>
@@ -6115,7 +6119,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="12"/>
       <c r="B115" s="14" t="s">
         <v>424</v>
@@ -6132,7 +6136,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="17"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>479</v>
       </c>
@@ -6145,7 +6149,7 @@
       <c r="F116" s="22"/>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="12"/>
       <c r="B117" s="27" t="s">
         <v>409</v>
@@ -6164,7 +6168,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="12"/>
       <c r="B118" s="27" t="s">
         <v>480</v>
@@ -6181,7 +6185,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="12"/>
       <c r="B119" s="27" t="s">
         <v>481</v>
@@ -6198,7 +6202,7 @@
       <c r="F119" s="15"/>
       <c r="G119" s="17"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="12"/>
       <c r="B120" s="14" t="s">
         <v>482</v>
@@ -6215,7 +6219,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="12"/>
       <c r="B121" s="14" t="s">
         <v>483</v>
@@ -6232,7 +6236,7 @@
       <c r="F121" s="15"/>
       <c r="G121" s="17"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="12"/>
       <c r="B122" s="14" t="s">
         <v>484</v>
@@ -6249,7 +6253,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="12"/>
       <c r="B123" s="14" t="s">
         <v>485</v>
@@ -6266,7 +6270,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="12"/>
       <c r="B124" s="14" t="s">
         <v>486</v>
@@ -6283,7 +6287,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="12"/>
       <c r="B125" s="14" t="s">
         <v>487</v>
@@ -6300,7 +6304,7 @@
       <c r="F125" s="15"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="12"/>
       <c r="B126" s="14" t="s">
         <v>422</v>
@@ -6319,7 +6323,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
       <c r="B127" s="14" t="s">
         <v>413</v>
@@ -6336,7 +6340,7 @@
       <c r="F127" s="15"/>
       <c r="G127" s="17"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="12"/>
       <c r="B128" s="14" t="s">
         <v>414</v>
@@ -6351,7 +6355,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="17"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="12"/>
       <c r="B129" s="14" t="s">
         <v>415</v>
@@ -6368,7 +6372,7 @@
       <c r="F129" s="15"/>
       <c r="G129" s="17"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="14" t="s">
         <v>423</v>
@@ -6383,7 +6387,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="14" t="s">
         <v>424</v>
@@ -6400,7 +6404,7 @@
       <c r="F131" s="15"/>
       <c r="G131" s="17"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>489</v>
       </c>
@@ -6413,7 +6417,7 @@
       <c r="F132" s="22"/>
       <c r="G132" s="23"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
       <c r="B133" s="27" t="s">
         <v>490</v>
@@ -6432,7 +6436,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="27" t="s">
         <v>491</v>
@@ -6447,7 +6451,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
       <c r="B135" s="27" t="s">
         <v>492</v>
@@ -6466,7 +6470,7 @@
       </c>
       <c r="G135" s="17"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="12"/>
       <c r="B136" s="27" t="s">
         <v>493</v>
@@ -6485,7 +6489,7 @@
       </c>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
       <c r="B137" s="27" t="s">
         <v>494</v>
@@ -6500,7 +6504,7 @@
       <c r="F137" s="15"/>
       <c r="G137" s="17"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
       <c r="B138" s="27" t="s">
         <v>495</v>
@@ -6515,7 +6519,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
       <c r="B139" s="27" t="s">
         <v>496</v>
@@ -6532,7 +6536,7 @@
       <c r="F139" s="15"/>
       <c r="G139" s="17"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
       <c r="B140" s="27" t="s">
         <v>497</v>
@@ -6551,7 +6555,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
       <c r="B141" s="27" t="s">
         <v>413</v>
@@ -6568,7 +6572,7 @@
       <c r="F141" s="15"/>
       <c r="G141" s="17"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="14" t="s">
         <v>414</v>
@@ -6583,7 +6587,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="12"/>
       <c r="B143" s="14" t="s">
         <v>415</v>
@@ -6600,7 +6604,7 @@
       <c r="F143" s="15"/>
       <c r="G143" s="17"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="12"/>
       <c r="B144" s="14" t="s">
         <v>423</v>
@@ -6615,7 +6619,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="12"/>
       <c r="B145" s="14" t="s">
         <v>424</v>
@@ -6632,7 +6636,7 @@
       <c r="F145" s="15"/>
       <c r="G145" s="17"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
         <v>498</v>
       </c>
@@ -6645,7 +6649,7 @@
       <c r="F146" s="22"/>
       <c r="G146" s="23"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="24"/>
       <c r="B147" s="14" t="s">
         <v>499</v>
@@ -6664,7 +6668,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="24"/>
       <c r="B148" s="14" t="s">
         <v>500</v>
@@ -6683,7 +6687,7 @@
       </c>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="24"/>
       <c r="B149" s="14" t="s">
         <v>458</v>
@@ -6702,7 +6706,7 @@
       </c>
       <c r="G149" s="26"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="24"/>
       <c r="B150" s="14" t="s">
         <v>502</v>
@@ -6717,7 +6721,7 @@
       <c r="F150" s="25"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="24"/>
       <c r="B151" s="14" t="s">
         <v>503</v>
@@ -6732,7 +6736,7 @@
       <c r="F151" s="25"/>
       <c r="G151" s="26"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="24"/>
       <c r="B152" s="14" t="s">
         <v>504</v>
@@ -6747,7 +6751,7 @@
       <c r="F152" s="25"/>
       <c r="G152" s="26"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="31"/>
       <c r="B153" s="14" t="s">
         <v>505</v>
@@ -6762,7 +6766,7 @@
       <c r="F153" s="32"/>
       <c r="G153" s="33"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="31"/>
       <c r="B154" s="14" t="s">
         <v>414</v>
@@ -6777,7 +6781,7 @@
       <c r="F154" s="32"/>
       <c r="G154" s="33"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="31"/>
       <c r="B155" s="14" t="s">
         <v>415</v>
@@ -6794,7 +6798,7 @@
       <c r="F155" s="32"/>
       <c r="G155" s="33"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="31"/>
       <c r="B156" s="14" t="s">
         <v>423</v>
@@ -6809,7 +6813,7 @@
       <c r="F156" s="32"/>
       <c r="G156" s="33"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="31"/>
       <c r="B157" s="14" t="s">
         <v>424</v>
@@ -6826,7 +6830,7 @@
       <c r="F157" s="32"/>
       <c r="G157" s="33"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="18" t="s">
         <v>506</v>
       </c>
@@ -6839,7 +6843,7 @@
       <c r="F158" s="22"/>
       <c r="G158" s="23"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="24"/>
       <c r="B159" s="14" t="s">
         <v>500</v>
@@ -6858,7 +6862,7 @@
       </c>
       <c r="G159" s="26"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="24"/>
       <c r="B160" s="14" t="s">
         <v>507</v>
@@ -6875,7 +6879,7 @@
       <c r="F160" s="25"/>
       <c r="G160" s="26"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="24"/>
       <c r="B161" s="14" t="s">
         <v>508</v>
@@ -6892,7 +6896,7 @@
       <c r="F161" s="25"/>
       <c r="G161" s="26"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="24"/>
       <c r="B162" s="14" t="s">
         <v>799</v>
@@ -6911,7 +6915,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="24"/>
       <c r="B163" s="14" t="s">
         <v>511</v>
@@ -6926,7 +6930,7 @@
       <c r="F163" s="25"/>
       <c r="G163" s="26"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="24"/>
       <c r="B164" s="14" t="s">
         <v>509</v>
@@ -6941,7 +6945,7 @@
       <c r="F164" s="25"/>
       <c r="G164" s="26"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="24"/>
       <c r="B165" s="14" t="s">
         <v>510</v>
@@ -6960,7 +6964,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="24"/>
       <c r="B166" s="14" t="s">
         <v>512</v>
@@ -6975,7 +6979,7 @@
       <c r="F166" s="25"/>
       <c r="G166" s="26"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="24"/>
       <c r="B167" s="14" t="s">
         <v>513</v>
@@ -6990,7 +6994,7 @@
       <c r="F167" s="25"/>
       <c r="G167" s="26"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="24"/>
       <c r="B168" s="14" t="s">
         <v>514</v>
@@ -7005,7 +7009,7 @@
       <c r="F168" s="25"/>
       <c r="G168" s="26"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="24"/>
       <c r="B169" s="14" t="s">
         <v>515</v>
@@ -7020,7 +7024,7 @@
       <c r="F169" s="25"/>
       <c r="G169" s="26"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="24"/>
       <c r="B170" s="14" t="s">
         <v>427</v>
@@ -7039,7 +7043,7 @@
       </c>
       <c r="G170" s="26"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="24"/>
       <c r="B171" s="14" t="s">
         <v>413</v>
@@ -7056,7 +7060,7 @@
       <c r="F171" s="25"/>
       <c r="G171" s="26"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="24"/>
       <c r="B172" s="14" t="s">
         <v>422</v>
@@ -7075,7 +7079,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="24"/>
       <c r="B173" s="14" t="s">
         <v>414</v>
@@ -7090,7 +7094,7 @@
       <c r="F173" s="25"/>
       <c r="G173" s="26"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="24"/>
       <c r="B174" s="14" t="s">
         <v>415</v>
@@ -7107,7 +7111,7 @@
       <c r="F174" s="25"/>
       <c r="G174" s="26"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="24"/>
       <c r="B175" s="14" t="s">
         <v>423</v>
@@ -7122,7 +7126,7 @@
       <c r="F175" s="25"/>
       <c r="G175" s="26"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="24"/>
       <c r="B176" s="14" t="s">
         <v>424</v>
@@ -7139,7 +7143,7 @@
       <c r="F176" s="25"/>
       <c r="G176" s="26"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="18" t="s">
         <v>516</v>
       </c>
@@ -7152,7 +7156,7 @@
       <c r="F177" s="22"/>
       <c r="G177" s="23"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="24"/>
       <c r="B178" s="14" t="s">
         <v>517</v>
@@ -7171,7 +7175,7 @@
       </c>
       <c r="G178" s="26"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
       <c r="B179" s="14" t="s">
         <v>518</v>
@@ -7188,7 +7192,7 @@
       <c r="F179" s="25"/>
       <c r="G179" s="26"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="24"/>
       <c r="B180" s="14" t="s">
         <v>519</v>
@@ -7205,7 +7209,7 @@
       <c r="F180" s="25"/>
       <c r="G180" s="26"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
       <c r="B181" s="14" t="s">
         <v>520</v>
@@ -7222,7 +7226,7 @@
       <c r="F181" s="25"/>
       <c r="G181" s="26"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="24"/>
       <c r="B182" s="14" t="s">
         <v>492</v>
@@ -7241,7 +7245,7 @@
       </c>
       <c r="G182" s="26"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="24"/>
       <c r="B183" s="14" t="s">
         <v>413</v>
@@ -7258,7 +7262,7 @@
       <c r="F183" s="25"/>
       <c r="G183" s="26"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="24"/>
       <c r="B184" s="14" t="s">
         <v>422</v>
@@ -7277,7 +7281,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
       <c r="B185" s="14" t="s">
         <v>414</v>
@@ -7292,7 +7296,7 @@
       <c r="F185" s="25"/>
       <c r="G185" s="26"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="31"/>
       <c r="B186" s="14" t="s">
         <v>415</v>
@@ -7307,7 +7311,7 @@
       <c r="F186" s="32"/>
       <c r="G186" s="33"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="31"/>
       <c r="B187" s="14" t="s">
         <v>423</v>
@@ -7322,7 +7326,7 @@
       <c r="F187" s="32"/>
       <c r="G187" s="33"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="31"/>
       <c r="B188" s="14" t="s">
         <v>424</v>
@@ -7339,7 +7343,7 @@
       <c r="F188" s="32"/>
       <c r="G188" s="33"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
         <v>521</v>
       </c>
@@ -7352,7 +7356,7 @@
       <c r="F189" s="22"/>
       <c r="G189" s="23"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="12"/>
       <c r="B190" s="14" t="s">
         <v>522</v>
@@ -7371,7 +7375,7 @@
       </c>
       <c r="G190" s="26"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="12"/>
       <c r="B191" s="14" t="s">
         <v>523</v>
@@ -7390,7 +7394,7 @@
       </c>
       <c r="G191" s="26"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="12"/>
       <c r="B192" s="14" t="s">
         <v>524</v>
@@ -7407,7 +7411,7 @@
       <c r="F192" s="25"/>
       <c r="G192" s="26"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="12"/>
       <c r="B193" s="14" t="s">
         <v>414</v>
@@ -7422,7 +7426,7 @@
       <c r="F193" s="25"/>
       <c r="G193" s="26"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="12"/>
       <c r="B194" s="14" t="s">
         <v>415</v>
@@ -7439,7 +7443,7 @@
       <c r="F194" s="25"/>
       <c r="G194" s="26"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
       <c r="B195" s="14" t="s">
         <v>423</v>
@@ -7454,7 +7458,7 @@
       <c r="F195" s="25"/>
       <c r="G195" s="26"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="12"/>
       <c r="B196" s="14" t="s">
         <v>424</v>
@@ -7471,7 +7475,7 @@
       <c r="F196" s="25"/>
       <c r="G196" s="26"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="18" t="s">
         <v>525</v>
       </c>
@@ -7484,7 +7488,7 @@
       <c r="F197" s="22"/>
       <c r="G197" s="23"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="12"/>
       <c r="B198" s="14" t="s">
         <v>526</v>
@@ -7503,7 +7507,7 @@
       </c>
       <c r="G198" s="26"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="12"/>
       <c r="B199" s="14" t="s">
         <v>482</v>
@@ -7520,7 +7524,7 @@
       <c r="F199" s="25"/>
       <c r="G199" s="26"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="12"/>
       <c r="B200" s="14" t="s">
         <v>527</v>
@@ -7537,7 +7541,7 @@
       <c r="F200" s="25"/>
       <c r="G200" s="26"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="12"/>
       <c r="B201" s="14" t="s">
         <v>528</v>
@@ -7554,7 +7558,7 @@
       <c r="F201" s="25"/>
       <c r="G201" s="26"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="12"/>
       <c r="B202" s="14" t="s">
         <v>529</v>
@@ -7569,7 +7573,7 @@
       <c r="F202" s="25"/>
       <c r="G202" s="26"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="12"/>
       <c r="B203" s="14" t="s">
         <v>422</v>
@@ -7588,7 +7592,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="12"/>
       <c r="B204" s="14" t="s">
         <v>414</v>
@@ -7603,7 +7607,7 @@
       <c r="F204" s="25"/>
       <c r="G204" s="26"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="12"/>
       <c r="B205" s="14" t="s">
         <v>415</v>
@@ -7620,7 +7624,7 @@
       <c r="F205" s="25"/>
       <c r="G205" s="26"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="12"/>
       <c r="B206" s="14" t="s">
         <v>423</v>
@@ -7635,7 +7639,7 @@
       <c r="F206" s="25"/>
       <c r="G206" s="26"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="12"/>
       <c r="B207" s="14" t="s">
         <v>424</v>
@@ -7652,7 +7656,7 @@
       <c r="F207" s="25"/>
       <c r="G207" s="26"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="18" t="s">
         <v>530</v>
       </c>
@@ -7665,7 +7669,7 @@
       <c r="F208" s="22"/>
       <c r="G208" s="23"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="24"/>
       <c r="B209" s="14" t="s">
         <v>493</v>
@@ -7684,7 +7688,7 @@
       </c>
       <c r="G209" s="26"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="24"/>
       <c r="B210" s="14" t="s">
         <v>526</v>
@@ -7703,7 +7707,7 @@
       </c>
       <c r="G210" s="26"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="24"/>
       <c r="B211" s="14" t="s">
         <v>531</v>
@@ -7722,7 +7726,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="24"/>
       <c r="B212" s="14" t="s">
         <v>532</v>
@@ -7741,7 +7745,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="24"/>
       <c r="B213" s="14" t="s">
         <v>414</v>
@@ -7756,7 +7760,7 @@
       <c r="F213" s="25"/>
       <c r="G213" s="26"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="24"/>
       <c r="B214" s="14" t="s">
         <v>415</v>
@@ -7773,7 +7777,7 @@
       <c r="F214" s="25"/>
       <c r="G214" s="26"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="24"/>
       <c r="B215" s="14" t="s">
         <v>423</v>
@@ -7788,7 +7792,7 @@
       <c r="F215" s="25"/>
       <c r="G215" s="26"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="24"/>
       <c r="B216" s="14" t="s">
         <v>424</v>
@@ -7805,7 +7809,7 @@
       <c r="F216" s="25"/>
       <c r="G216" s="26"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
         <v>533</v>
       </c>
@@ -7818,7 +7822,7 @@
       <c r="F217" s="22"/>
       <c r="G217" s="23"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="24"/>
       <c r="B218" s="14" t="s">
         <v>534</v>
@@ -7837,7 +7841,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="24"/>
       <c r="B219" s="14" t="s">
         <v>535</v>
@@ -7856,7 +7860,7 @@
       </c>
       <c r="G219" s="26"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="24"/>
       <c r="B220" s="14" t="s">
         <v>458</v>
@@ -7873,7 +7877,7 @@
       <c r="F220" s="25"/>
       <c r="G220" s="26"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="24"/>
       <c r="B221" s="14" t="s">
         <v>536</v>
@@ -7888,7 +7892,7 @@
       <c r="F221" s="25"/>
       <c r="G221" s="26"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="24"/>
       <c r="B222" s="14" t="s">
         <v>537</v>
@@ -7903,7 +7907,7 @@
       <c r="F222" s="25"/>
       <c r="G222" s="26"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="24"/>
       <c r="B223" s="14" t="s">
         <v>538</v>
@@ -7922,7 +7926,7 @@
       </c>
       <c r="G223" s="26"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="24"/>
       <c r="B224" s="14" t="s">
         <v>539</v>
@@ -7937,7 +7941,7 @@
       <c r="F224" s="25"/>
       <c r="G224" s="26"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="24"/>
       <c r="B225" s="14" t="s">
         <v>540</v>
@@ -7952,7 +7956,7 @@
       <c r="F225" s="25"/>
       <c r="G225" s="26"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="24"/>
       <c r="B226" s="14" t="s">
         <v>541</v>
@@ -7967,7 +7971,7 @@
       <c r="F226" s="25"/>
       <c r="G226" s="26"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="24"/>
       <c r="B227" s="14" t="s">
         <v>542</v>
@@ -7982,7 +7986,7 @@
       <c r="F227" s="25"/>
       <c r="G227" s="26"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="24"/>
       <c r="B228" s="14" t="s">
         <v>544</v>
@@ -7997,7 +8001,7 @@
       <c r="F228" s="25"/>
       <c r="G228" s="26"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="24"/>
       <c r="B229" s="14" t="s">
         <v>545</v>
@@ -8012,7 +8016,7 @@
       <c r="F229" s="25"/>
       <c r="G229" s="26"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="31"/>
       <c r="B230" s="14" t="s">
         <v>546</v>
@@ -8031,7 +8035,7 @@
       </c>
       <c r="G230" s="33"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="31"/>
       <c r="B231" s="14" t="s">
         <v>547</v>
@@ -8050,7 +8054,7 @@
       </c>
       <c r="G231" s="33"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="31"/>
       <c r="B232" s="14" t="s">
         <v>548</v>
@@ -8065,7 +8069,7 @@
       <c r="F232" s="25"/>
       <c r="G232" s="33"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="31"/>
       <c r="B233" s="14" t="s">
         <v>549</v>
@@ -8080,7 +8084,7 @@
       <c r="F233" s="25"/>
       <c r="G233" s="33"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="31"/>
       <c r="B234" s="14" t="s">
         <v>550</v>
@@ -8095,7 +8099,7 @@
       <c r="F234" s="25"/>
       <c r="G234" s="33"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="31"/>
       <c r="B235" s="14" t="s">
         <v>551</v>
@@ -8112,7 +8116,7 @@
       <c r="F235" s="25"/>
       <c r="G235" s="33"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="31"/>
       <c r="B236" s="14" t="s">
         <v>552</v>
@@ -8131,7 +8135,7 @@
       </c>
       <c r="G236" s="33"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="31"/>
       <c r="B237" s="14" t="s">
         <v>553</v>
@@ -8150,7 +8154,7 @@
       </c>
       <c r="G237" s="33"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="31"/>
       <c r="B238" s="14" t="s">
         <v>414</v>
@@ -8165,7 +8169,7 @@
       <c r="F238" s="32"/>
       <c r="G238" s="33"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="31"/>
       <c r="B239" s="14" t="s">
         <v>415</v>
@@ -8182,7 +8186,7 @@
       <c r="F239" s="32"/>
       <c r="G239" s="33"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="31"/>
       <c r="B240" s="14" t="s">
         <v>423</v>
@@ -8197,7 +8201,7 @@
       <c r="F240" s="32"/>
       <c r="G240" s="33"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="31"/>
       <c r="B241" s="14" t="s">
         <v>424</v>
@@ -8214,7 +8218,7 @@
       <c r="F241" s="32"/>
       <c r="G241" s="33"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="18" t="s">
         <v>554</v>
       </c>
@@ -8227,7 +8231,7 @@
       <c r="F242" s="22"/>
       <c r="G242" s="23"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
         <v>9</v>
       </c>
@@ -8248,7 +8252,7 @@
       </c>
       <c r="G243" s="26"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="24" t="s">
         <v>9</v>
       </c>
@@ -8267,7 +8271,7 @@
       <c r="F244" s="25"/>
       <c r="G244" s="26"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="24"/>
       <c r="B245" s="14" t="s">
         <v>556</v>
@@ -8284,7 +8288,7 @@
       <c r="F245" s="25"/>
       <c r="G245" s="26"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="31" t="s">
         <v>9</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="31"/>
       <c r="B247" s="14" t="s">
         <v>819</v>
@@ -8324,7 +8328,7 @@
       </c>
       <c r="G247" s="26"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="31" t="s">
         <v>9</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="31"/>
       <c r="B249" s="14" t="s">
         <v>414</v>
@@ -8360,7 +8364,7 @@
       <c r="F249" s="25"/>
       <c r="G249" s="33"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="31"/>
       <c r="B250" s="14" t="s">
         <v>415</v>
@@ -8377,7 +8381,7 @@
       <c r="F250" s="25"/>
       <c r="G250" s="33"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="31"/>
       <c r="B251" s="14" t="s">
         <v>423</v>
@@ -8392,7 +8396,7 @@
       <c r="F251" s="25"/>
       <c r="G251" s="33"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="31" t="s">
         <v>9</v>
       </c>
@@ -8411,7 +8415,7 @@
       <c r="F252" s="32"/>
       <c r="G252" s="33"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="38" t="s">
         <v>558</v>
       </c>
@@ -8424,7 +8428,7 @@
       <c r="F253" s="22"/>
       <c r="G253" s="23"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
         <v>9</v>
       </c>
@@ -8445,7 +8449,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
         <v>9</v>
       </c>
@@ -8464,7 +8468,7 @@
       <c r="F255" s="25"/>
       <c r="G255" s="26"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="40" t="s">
         <v>9</v>
       </c>
@@ -8485,7 +8489,7 @@
       </c>
       <c r="G256" s="26"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="40" t="s">
         <v>9</v>
       </c>
@@ -8502,7 +8506,7 @@
       <c r="F257" s="25"/>
       <c r="G257" s="26"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="14" t="s">
         <v>561</v>
@@ -8517,7 +8521,7 @@
       <c r="F258" s="25"/>
       <c r="G258" s="26"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="14" t="s">
         <v>823</v>
@@ -8532,7 +8536,7 @@
       <c r="F259" s="25"/>
       <c r="G259" s="26"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="14" t="s">
         <v>562</v>
@@ -8547,7 +8551,7 @@
       <c r="F260" s="25"/>
       <c r="G260" s="26"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="14" t="s">
         <v>826</v>
@@ -8564,7 +8568,7 @@
       <c r="F261" s="25"/>
       <c r="G261" s="26"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="14" t="s">
         <v>829</v>
@@ -8579,7 +8583,7 @@
       <c r="F262" s="25"/>
       <c r="G262" s="26"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="14" t="s">
         <v>543</v>
@@ -8594,7 +8598,7 @@
       <c r="F263" s="25"/>
       <c r="G263" s="26"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="40" t="s">
         <v>9</v>
       </c>
@@ -8611,7 +8615,7 @@
       <c r="F264" s="25"/>
       <c r="G264" s="26"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="40" t="s">
         <v>9</v>
       </c>
@@ -8628,7 +8632,7 @@
       <c r="F265" s="25"/>
       <c r="G265" s="26"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="14" t="s">
         <v>541</v>
@@ -8643,7 +8647,7 @@
       <c r="F266" s="25"/>
       <c r="G266" s="26"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="14" t="s">
         <v>414</v>
@@ -8658,7 +8662,7 @@
       <c r="F267" s="25"/>
       <c r="G267" s="26"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="14" t="s">
         <v>415</v>
@@ -8675,7 +8679,7 @@
       <c r="F268" s="25"/>
       <c r="G268" s="26"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="14" t="s">
         <v>423</v>
@@ -8690,7 +8694,7 @@
       <c r="F269" s="25"/>
       <c r="G269" s="26"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="14" t="s">
         <v>424</v>
@@ -8707,7 +8711,7 @@
       <c r="F270" s="25"/>
       <c r="G270" s="26"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="38" t="s">
         <v>563</v>
       </c>
@@ -8720,7 +8724,7 @@
       <c r="F271" s="22"/>
       <c r="G271" s="23"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="39"/>
       <c r="B272" s="14" t="s">
         <v>564</v>
@@ -8739,7 +8743,7 @@
       </c>
       <c r="G272" s="26"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="39" t="s">
         <v>9</v>
       </c>
@@ -8756,7 +8760,7 @@
       <c r="F273" s="25"/>
       <c r="G273" s="26"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="39"/>
       <c r="B274" s="14" t="s">
         <v>493</v>
@@ -8775,7 +8779,7 @@
       </c>
       <c r="G274" s="26"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="14" t="s">
         <v>566</v>
@@ -8790,7 +8794,7 @@
       <c r="F275" s="25"/>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="39" t="s">
         <v>9</v>
       </c>
@@ -8809,7 +8813,7 @@
       <c r="F276" s="25"/>
       <c r="G276" s="26"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="40" t="s">
         <v>9</v>
       </c>
@@ -8828,7 +8832,7 @@
       <c r="F277" s="25"/>
       <c r="G277" s="33"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="40" t="s">
         <v>9</v>
       </c>
@@ -8847,7 +8851,7 @@
       <c r="F278" s="25"/>
       <c r="G278" s="33"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="14" t="s">
         <v>570</v>
@@ -8864,7 +8868,7 @@
       <c r="F279" s="25"/>
       <c r="G279" s="33"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="14" t="s">
         <v>571</v>
@@ -8881,7 +8885,7 @@
       <c r="F280" s="25"/>
       <c r="G280" s="33"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="14" t="s">
         <v>414</v>
@@ -8896,7 +8900,7 @@
       <c r="F281" s="25"/>
       <c r="G281" s="33"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="40" t="s">
         <v>9</v>
       </c>
@@ -8915,7 +8919,7 @@
       <c r="F282" s="32"/>
       <c r="G282" s="33"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="40" t="s">
         <v>9</v>
       </c>
@@ -8932,7 +8936,7 @@
       <c r="F283" s="32"/>
       <c r="G283" s="33"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="14" t="s">
         <v>424</v>
@@ -8949,7 +8953,7 @@
       <c r="F284" s="32"/>
       <c r="G284" s="33"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="38" t="s">
         <v>572</v>
       </c>
@@ -8962,7 +8966,7 @@
       <c r="F285" s="22"/>
       <c r="G285" s="23"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="39"/>
       <c r="B286" s="14" t="s">
         <v>409</v>
@@ -8981,7 +8985,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="39"/>
       <c r="B287" s="14" t="s">
         <v>573</v>
@@ -8998,7 +9002,7 @@
       <c r="F287" s="25"/>
       <c r="G287" s="26"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="39"/>
       <c r="B288" s="14" t="s">
         <v>574</v>
@@ -9015,7 +9019,7 @@
       <c r="F288" s="25"/>
       <c r="G288" s="26"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="39"/>
       <c r="B289" s="14" t="s">
         <v>529</v>
@@ -9030,7 +9034,7 @@
       <c r="F289" s="25"/>
       <c r="G289" s="26"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="39"/>
       <c r="B290" s="14" t="s">
         <v>414</v>
@@ -9045,7 +9049,7 @@
       <c r="F290" s="25"/>
       <c r="G290" s="26"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="39"/>
       <c r="B291" s="14" t="s">
         <v>415</v>
@@ -9062,7 +9066,7 @@
       <c r="F291" s="25"/>
       <c r="G291" s="26"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="39"/>
       <c r="B292" s="14" t="s">
         <v>423</v>
@@ -9077,7 +9081,7 @@
       <c r="F292" s="25"/>
       <c r="G292" s="26"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="39"/>
       <c r="B293" s="14" t="s">
         <v>424</v>
@@ -9094,7 +9098,7 @@
       <c r="F293" s="25"/>
       <c r="G293" s="26"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>575</v>
       </c>
@@ -9107,7 +9111,7 @@
       <c r="F294" s="22"/>
       <c r="G294" s="23"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="39"/>
       <c r="B295" s="14" t="s">
         <v>522</v>
@@ -9126,7 +9130,7 @@
       </c>
       <c r="G295" s="26"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="39" t="s">
         <v>9</v>
       </c>
@@ -9147,7 +9151,7 @@
       </c>
       <c r="G296" s="26"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="39" t="s">
         <v>9</v>
       </c>
@@ -9166,7 +9170,7 @@
       <c r="F297" s="25"/>
       <c r="G297" s="26"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="39" t="s">
         <v>9</v>
       </c>
@@ -9183,7 +9187,7 @@
       <c r="F298" s="25"/>
       <c r="G298" s="26"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="39"/>
       <c r="B299" s="14" t="s">
         <v>415</v>
@@ -9200,7 +9204,7 @@
       <c r="F299" s="25"/>
       <c r="G299" s="26"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="39" t="s">
         <v>9</v>
       </c>
@@ -9217,7 +9221,7 @@
       <c r="F300" s="25"/>
       <c r="G300" s="26"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="39"/>
       <c r="B301" s="14" t="s">
         <v>424</v>
@@ -9234,7 +9238,7 @@
       <c r="F301" s="25"/>
       <c r="G301" s="26"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>579</v>
       </c>
@@ -9247,7 +9251,7 @@
       <c r="F302" s="22"/>
       <c r="G302" s="23"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="39" t="s">
         <v>9</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="39" t="s">
         <v>9</v>
       </c>
@@ -9287,7 +9291,7 @@
       <c r="F304" s="25"/>
       <c r="G304" s="26"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="39" t="s">
         <v>9</v>
       </c>
@@ -9304,7 +9308,7 @@
       <c r="F305" s="25"/>
       <c r="G305" s="26"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="39" t="s">
         <v>9</v>
       </c>
@@ -9321,7 +9325,7 @@
       <c r="F306" s="25"/>
       <c r="G306" s="26"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="39" t="s">
         <v>9</v>
       </c>
@@ -9340,7 +9344,7 @@
       <c r="F307" s="25"/>
       <c r="G307" s="26"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="39" t="s">
         <v>9</v>
       </c>
@@ -9359,7 +9363,7 @@
       <c r="F308" s="25"/>
       <c r="G308" s="26"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="39"/>
       <c r="B309" s="14" t="s">
         <v>585</v>
@@ -9376,7 +9380,7 @@
       <c r="F309" s="25"/>
       <c r="G309" s="26"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="39"/>
       <c r="B310" s="14" t="s">
         <v>414</v>
@@ -9391,7 +9395,7 @@
       <c r="F310" s="25"/>
       <c r="G310" s="26"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="39"/>
       <c r="B311" s="14" t="s">
         <v>415</v>
@@ -9408,7 +9412,7 @@
       <c r="F311" s="25"/>
       <c r="G311" s="26"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="38" t="s">
         <v>586</v>
       </c>
@@ -9421,7 +9425,7 @@
       <c r="F312" s="22"/>
       <c r="G312" s="23"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="39" t="s">
         <v>9</v>
       </c>
@@ -9442,7 +9446,7 @@
       </c>
       <c r="G313" s="26"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="39"/>
       <c r="B314" s="14" t="s">
         <v>587</v>
@@ -9459,7 +9463,7 @@
       </c>
       <c r="G314" s="26"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="39"/>
       <c r="B315" s="14" t="s">
         <v>588</v>
@@ -9478,7 +9482,7 @@
       </c>
       <c r="G315" s="26"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
       <c r="B316" s="14" t="s">
         <v>589</v>
@@ -9493,7 +9497,7 @@
       <c r="F316" s="25"/>
       <c r="G316" s="26"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="39"/>
       <c r="B317" s="14" t="s">
         <v>590</v>
@@ -9508,7 +9512,7 @@
       <c r="F317" s="25"/>
       <c r="G317" s="26"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="39"/>
       <c r="B318" s="14" t="s">
         <v>591</v>
@@ -9525,7 +9529,7 @@
       <c r="F318" s="25"/>
       <c r="G318" s="26"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="14" t="s">
         <v>592</v>
@@ -9542,7 +9546,7 @@
       <c r="F319" s="25"/>
       <c r="G319" s="26"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="39" t="s">
         <v>9</v>
       </c>
@@ -9559,7 +9563,7 @@
       <c r="F320" s="25"/>
       <c r="G320" s="26"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="14" t="s">
         <v>415</v>
@@ -9576,7 +9580,7 @@
       <c r="F321" s="25"/>
       <c r="G321" s="26"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="39"/>
       <c r="B322" s="14" t="s">
         <v>423</v>
@@ -9591,7 +9595,7 @@
       <c r="F322" s="25"/>
       <c r="G322" s="26"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
       <c r="B323" s="14" t="s">
         <v>424</v>
@@ -9608,7 +9612,7 @@
       <c r="F323" s="25"/>
       <c r="G323" s="26"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>593</v>
       </c>
@@ -9621,7 +9625,7 @@
       <c r="F324" s="22"/>
       <c r="G324" s="23"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
       <c r="B325" s="14" t="s">
         <v>594</v>
@@ -9640,7 +9644,7 @@
       </c>
       <c r="G325" s="26"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
       <c r="B326" s="14" t="s">
         <v>595</v>
@@ -9657,7 +9661,7 @@
       <c r="F326" s="25"/>
       <c r="G326" s="26"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
         <v>422</v>
@@ -9676,7 +9680,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="39"/>
       <c r="B328" s="14" t="s">
         <v>414</v>
@@ -9691,7 +9695,7 @@
       <c r="F328" s="25"/>
       <c r="G328" s="26"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="39"/>
       <c r="B329" s="14" t="s">
         <v>415</v>
@@ -9708,7 +9712,7 @@
       <c r="F329" s="25"/>
       <c r="G329" s="26"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="40" t="s">
         <v>9</v>
       </c>
@@ -9725,7 +9729,7 @@
       <c r="F330" s="32"/>
       <c r="G330" s="33"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="40" t="s">
         <v>9</v>
       </c>
@@ -9744,7 +9748,7 @@
       <c r="F331" s="32"/>
       <c r="G331" s="33"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>596</v>
       </c>
@@ -9757,7 +9761,7 @@
       <c r="F332" s="22"/>
       <c r="G332" s="23"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="39"/>
       <c r="B333" s="14" t="s">
         <v>588</v>
@@ -9776,7 +9780,7 @@
       </c>
       <c r="G333" s="26"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
       <c r="B334" s="14" t="s">
         <v>594</v>
@@ -9795,7 +9799,7 @@
       </c>
       <c r="G334" s="26"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="39"/>
       <c r="B335" s="14" t="s">
         <v>597</v>
@@ -9812,7 +9816,7 @@
       <c r="F335" s="25"/>
       <c r="G335" s="26"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
       <c r="B336" s="14" t="s">
         <v>422</v>
@@ -9831,7 +9835,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="39"/>
       <c r="B337" s="14" t="s">
         <v>413</v>
@@ -9848,7 +9852,7 @@
       <c r="F337" s="25"/>
       <c r="G337" s="26"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="39"/>
       <c r="B338" s="14" t="s">
         <v>414</v>
@@ -9863,7 +9867,7 @@
       <c r="F338" s="25"/>
       <c r="G338" s="26"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="39"/>
       <c r="B339" s="14" t="s">
         <v>415</v>
@@ -9880,7 +9884,7 @@
       <c r="F339" s="25"/>
       <c r="G339" s="26"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="39"/>
       <c r="B340" s="14" t="s">
         <v>423</v>
@@ -9895,7 +9899,7 @@
       <c r="F340" s="25"/>
       <c r="G340" s="26"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="14" t="s">
         <v>424</v>
@@ -9912,7 +9916,7 @@
       <c r="F341" s="25"/>
       <c r="G341" s="26"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>598</v>
       </c>
@@ -9927,7 +9931,7 @@
       <c r="F342" s="22"/>
       <c r="G342" s="23"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
       <c r="B343" s="14" t="s">
         <v>599</v>
@@ -9946,7 +9950,7 @@
       </c>
       <c r="G343" s="26"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="14" t="s">
         <v>600</v>
@@ -9963,7 +9967,7 @@
       <c r="F344" s="25"/>
       <c r="G344" s="34"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="39"/>
       <c r="B345" s="14" t="s">
         <v>422</v>
@@ -9982,7 +9986,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="40" t="s">
         <v>9</v>
       </c>
@@ -9999,7 +10003,7 @@
       <c r="F346" s="32"/>
       <c r="G346" s="33"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="40" t="s">
         <v>9</v>
       </c>
@@ -10018,7 +10022,7 @@
       <c r="F347" s="32"/>
       <c r="G347" s="33"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="14" t="s">
         <v>423</v>
@@ -10033,7 +10037,7 @@
       <c r="F348" s="32"/>
       <c r="G348" s="33"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="14" t="s">
         <v>424</v>
@@ -10050,7 +10054,7 @@
       <c r="F349" s="32"/>
       <c r="G349" s="33"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="38" t="s">
         <v>601</v>
       </c>
@@ -10065,7 +10069,7 @@
       <c r="F350" s="22"/>
       <c r="G350" s="23"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="39"/>
       <c r="B351" s="14" t="s">
         <v>602</v>
@@ -10084,7 +10088,7 @@
       </c>
       <c r="G351" s="26"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="39"/>
       <c r="B352" s="14" t="s">
         <v>603</v>
@@ -10101,7 +10105,7 @@
       <c r="F352" s="25"/>
       <c r="G352" s="34"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="14" t="s">
         <v>599</v>
@@ -10120,7 +10124,7 @@
       </c>
       <c r="G353" s="26"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="39"/>
       <c r="B354" s="14" t="s">
         <v>422</v>
@@ -10139,7 +10143,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="39"/>
       <c r="B355" s="14" t="s">
         <v>413</v>
@@ -10156,7 +10160,7 @@
       <c r="F355" s="25"/>
       <c r="G355" s="26"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="39"/>
       <c r="B356" s="14" t="s">
         <v>414</v>
@@ -10171,7 +10175,7 @@
       <c r="F356" s="25"/>
       <c r="G356" s="26"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="39"/>
       <c r="B357" s="14" t="s">
         <v>415</v>
@@ -10188,7 +10192,7 @@
       <c r="F357" s="25"/>
       <c r="G357" s="26"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="39"/>
       <c r="B358" s="14" t="s">
         <v>423</v>
@@ -10203,7 +10207,7 @@
       <c r="F358" s="25"/>
       <c r="G358" s="26"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
       <c r="B359" s="14" t="s">
         <v>424</v>
@@ -10220,7 +10224,7 @@
       <c r="F359" s="25"/>
       <c r="G359" s="26"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>610</v>
       </c>
@@ -10235,7 +10239,7 @@
       <c r="F360" s="22"/>
       <c r="G360" s="23"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
       <c r="B361" s="14" t="s">
         <v>604</v>
@@ -10254,7 +10258,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="14" t="s">
         <v>605</v>
@@ -10269,7 +10273,7 @@
       <c r="F362" s="25"/>
       <c r="G362" s="26"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
       <c r="B363" s="14" t="s">
         <v>606</v>
@@ -10284,7 +10288,7 @@
       <c r="F363" s="25"/>
       <c r="G363" s="26"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="39"/>
       <c r="B364" s="14" t="s">
         <v>607</v>
@@ -10299,7 +10303,7 @@
       <c r="F364" s="25"/>
       <c r="G364" s="26"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="39"/>
       <c r="B365" s="14" t="s">
         <v>427</v>
@@ -10318,7 +10322,7 @@
       </c>
       <c r="G365" s="26"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
       <c r="B366" s="14" t="s">
         <v>602</v>
@@ -10337,7 +10341,7 @@
       </c>
       <c r="G366" s="26"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="40" t="s">
         <v>9</v>
       </c>
@@ -10356,7 +10360,7 @@
       <c r="F367" s="25"/>
       <c r="G367" s="33"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="40" t="s">
         <v>9</v>
       </c>
@@ -10375,7 +10379,7 @@
       <c r="F368" s="25"/>
       <c r="G368" s="33"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="14" t="s">
         <v>413</v>
@@ -10392,7 +10396,7 @@
       <c r="F369" s="25"/>
       <c r="G369" s="33"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="14" t="s">
         <v>414</v>
@@ -10407,7 +10411,7 @@
       <c r="F370" s="25"/>
       <c r="G370" s="33"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="14" t="s">
         <v>415</v>
@@ -10424,7 +10428,7 @@
       <c r="F371" s="25"/>
       <c r="G371" s="33"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="40" t="s">
         <v>9</v>
       </c>
@@ -10441,7 +10445,7 @@
       <c r="F372" s="25"/>
       <c r="G372" s="33"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="40" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +10464,7 @@
       <c r="F373" s="32"/>
       <c r="G373" s="33"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>611</v>
       </c>
@@ -10475,7 +10479,7 @@
       <c r="F374" s="22"/>
       <c r="G374" s="23"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="39"/>
       <c r="B375" s="14" t="s">
         <v>493</v>
@@ -10494,7 +10498,7 @@
       </c>
       <c r="G375" s="26"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="39"/>
       <c r="B376" s="14" t="s">
         <v>612</v>
@@ -10511,7 +10515,7 @@
       <c r="F376" s="25"/>
       <c r="G376" s="26"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
       <c r="B377" s="14" t="s">
         <v>613</v>
@@ -10528,7 +10532,7 @@
       <c r="F377" s="25"/>
       <c r="G377" s="26"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="39"/>
       <c r="B378" s="14" t="s">
         <v>614</v>
@@ -10545,7 +10549,7 @@
       <c r="F378" s="25"/>
       <c r="G378" s="26"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="39"/>
       <c r="B379" s="14" t="s">
         <v>615</v>
@@ -10562,7 +10566,7 @@
       <c r="F379" s="25"/>
       <c r="G379" s="26"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="39"/>
       <c r="B380" s="14" t="s">
         <v>616</v>
@@ -10579,7 +10583,7 @@
       <c r="F380" s="25"/>
       <c r="G380" s="26"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="39"/>
       <c r="B381" s="14" t="s">
         <v>617</v>
@@ -10598,7 +10602,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="39"/>
       <c r="B382" s="14" t="s">
         <v>618</v>
@@ -10617,7 +10621,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="39"/>
       <c r="B383" s="14" t="s">
         <v>619</v>
@@ -10632,7 +10636,7 @@
       <c r="F383" s="25"/>
       <c r="G383" s="26"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="39"/>
       <c r="B384" s="14" t="s">
         <v>620</v>
@@ -10651,7 +10655,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="39"/>
       <c r="B385" s="14" t="s">
         <v>621</v>
@@ -10670,7 +10674,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="39"/>
       <c r="B386" s="14" t="s">
         <v>622</v>
@@ -10689,7 +10693,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="14" t="s">
         <v>422</v>
@@ -10708,7 +10712,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="39"/>
       <c r="B388" s="14" t="s">
         <v>623</v>
@@ -10725,7 +10729,7 @@
       <c r="F388" s="25"/>
       <c r="G388" s="26"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="39"/>
       <c r="B389" s="14" t="s">
         <v>624</v>
@@ -10742,7 +10746,7 @@
       <c r="F389" s="25"/>
       <c r="G389" s="26"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="39"/>
       <c r="B390" s="14" t="s">
         <v>625</v>
@@ -10759,7 +10763,7 @@
       <c r="F390" s="25"/>
       <c r="G390" s="26"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="39"/>
       <c r="B391" s="14" t="s">
         <v>626</v>
@@ -10776,7 +10780,7 @@
       <c r="F391" s="25"/>
       <c r="G391" s="26"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="40" t="s">
         <v>9</v>
       </c>
@@ -10795,7 +10799,7 @@
       <c r="F392" s="25"/>
       <c r="G392" s="26"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="40" t="s">
         <v>9</v>
       </c>
@@ -10814,7 +10818,7 @@
       <c r="F393" s="25"/>
       <c r="G393" s="26"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="14" t="s">
         <v>629</v>
@@ -10831,7 +10835,7 @@
       <c r="F394" s="25"/>
       <c r="G394" s="26"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="14" t="s">
         <v>630</v>
@@ -10848,7 +10852,7 @@
       <c r="F395" s="25"/>
       <c r="G395" s="26"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="14" t="s">
         <v>631</v>
@@ -10865,7 +10869,7 @@
       <c r="F396" s="25"/>
       <c r="G396" s="26"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="40" t="s">
         <v>9</v>
       </c>
@@ -10884,7 +10888,7 @@
       <c r="F397" s="25"/>
       <c r="G397" s="26"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="40" t="s">
         <v>9</v>
       </c>
@@ -10903,7 +10907,7 @@
       <c r="F398" s="25"/>
       <c r="G398" s="26"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="14" t="s">
         <v>634</v>
@@ -10920,7 +10924,7 @@
       <c r="F399" s="25"/>
       <c r="G399" s="26"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="14" t="s">
         <v>414</v>
@@ -10935,7 +10939,7 @@
       <c r="F400" s="25"/>
       <c r="G400" s="26"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="14" t="s">
         <v>415</v>
@@ -10952,7 +10956,7 @@
       <c r="F401" s="25"/>
       <c r="G401" s="26"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="14" t="s">
         <v>423</v>
@@ -10967,7 +10971,7 @@
       <c r="F402" s="25"/>
       <c r="G402" s="26"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="14" t="s">
         <v>424</v>
@@ -10984,7 +10988,7 @@
       <c r="F403" s="32"/>
       <c r="G403" s="33"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>635</v>
       </c>
@@ -10997,7 +11001,7 @@
       <c r="F404" s="22"/>
       <c r="G404" s="23"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="14" t="s">
         <v>636</v>
@@ -11016,7 +11020,7 @@
       </c>
       <c r="G405" s="26"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="39"/>
       <c r="B406" s="14" t="s">
         <v>493</v>
@@ -11035,7 +11039,7 @@
       </c>
       <c r="G406" s="26"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="39"/>
       <c r="B407" s="14" t="s">
         <v>414</v>
@@ -11050,7 +11054,7 @@
       <c r="F407" s="25"/>
       <c r="G407" s="26"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="39"/>
       <c r="B408" s="14" t="s">
         <v>415</v>
@@ -11067,7 +11071,7 @@
       <c r="F408" s="25"/>
       <c r="G408" s="26"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="39"/>
       <c r="B409" s="14" t="s">
         <v>423</v>
@@ -11082,7 +11086,7 @@
       <c r="F409" s="25"/>
       <c r="G409" s="26"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="39"/>
       <c r="B410" s="14" t="s">
         <v>424</v>
@@ -11099,7 +11103,7 @@
       <c r="F410" s="25"/>
       <c r="G410" s="26"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>637</v>
       </c>
@@ -11112,7 +11116,7 @@
       <c r="F411" s="22"/>
       <c r="G411" s="23"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="39"/>
       <c r="B412" s="14" t="s">
         <v>636</v>
@@ -11131,7 +11135,7 @@
       </c>
       <c r="G412" s="26"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="39"/>
       <c r="B413" s="14" t="s">
         <v>638</v>
@@ -11148,7 +11152,7 @@
       <c r="F413" s="25"/>
       <c r="G413" s="26"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="39"/>
       <c r="B414" s="14" t="s">
         <v>639</v>
@@ -11165,7 +11169,7 @@
       <c r="F414" s="25"/>
       <c r="G414" s="26"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="39"/>
       <c r="B415" s="14" t="s">
         <v>422</v>
@@ -11184,7 +11188,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="39"/>
       <c r="B416" s="14" t="s">
         <v>414</v>
@@ -11199,7 +11203,7 @@
       <c r="F416" s="25"/>
       <c r="G416" s="26"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="39"/>
       <c r="B417" s="14" t="s">
         <v>415</v>
@@ -11216,7 +11220,7 @@
       <c r="F417" s="25"/>
       <c r="G417" s="26"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="39"/>
       <c r="B418" s="14" t="s">
         <v>423</v>
@@ -11231,7 +11235,7 @@
       <c r="F418" s="25"/>
       <c r="G418" s="26"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="39"/>
       <c r="B419" s="14" t="s">
         <v>424</v>
@@ -11248,7 +11252,7 @@
       <c r="F419" s="25"/>
       <c r="G419" s="26"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>640</v>
       </c>
@@ -11261,7 +11265,7 @@
       <c r="F420" s="22"/>
       <c r="G420" s="23"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="39"/>
       <c r="B421" s="14" t="s">
         <v>641</v>
@@ -11280,7 +11284,7 @@
       </c>
       <c r="G421" s="26"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="39"/>
       <c r="B422" s="14" t="s">
         <v>642</v>
@@ -11297,7 +11301,7 @@
       <c r="F422" s="25"/>
       <c r="G422" s="26"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="39"/>
       <c r="B423" s="14" t="s">
         <v>643</v>
@@ -11314,7 +11318,7 @@
       <c r="F423" s="25"/>
       <c r="G423" s="26"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="39"/>
       <c r="B424" s="14" t="s">
         <v>413</v>
@@ -11331,7 +11335,7 @@
       <c r="F424" s="25"/>
       <c r="G424" s="26"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="39" t="s">
         <v>9</v>
       </c>
@@ -11352,7 +11356,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="39"/>
       <c r="B426" s="14" t="s">
         <v>414</v>
@@ -11367,7 +11371,7 @@
       <c r="F426" s="25"/>
       <c r="G426" s="26"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="39" t="s">
         <v>9</v>
       </c>
@@ -11386,7 +11390,7 @@
       <c r="F427" s="25"/>
       <c r="G427" s="26"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="40" t="s">
         <v>9</v>
       </c>
@@ -11403,7 +11407,7 @@
       <c r="F428" s="32"/>
       <c r="G428" s="33"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="40" t="s">
         <v>9</v>
       </c>
@@ -11422,7 +11426,7 @@
       <c r="F429" s="32"/>
       <c r="G429" s="33"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>644</v>
       </c>
@@ -11437,7 +11441,7 @@
       <c r="F430" s="22"/>
       <c r="G430" s="23"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="39"/>
       <c r="B431" s="14" t="s">
         <v>645</v>
@@ -11456,7 +11460,7 @@
       </c>
       <c r="G431" s="26"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="39"/>
       <c r="B432" s="14" t="s">
         <v>641</v>
@@ -11475,7 +11479,7 @@
       </c>
       <c r="G432" s="34"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="39"/>
       <c r="B433" s="14" t="s">
         <v>646</v>
@@ -11492,7 +11496,7 @@
       <c r="F433" s="25"/>
       <c r="G433" s="26"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="39"/>
       <c r="B434" s="14" t="s">
         <v>529</v>
@@ -11507,7 +11511,7 @@
       <c r="F434" s="25"/>
       <c r="G434" s="26"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="39"/>
       <c r="B435" s="14" t="s">
         <v>413</v>
@@ -11524,7 +11528,7 @@
       <c r="F435" s="25"/>
       <c r="G435" s="26"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="39"/>
       <c r="B436" s="14" t="s">
         <v>422</v>
@@ -11543,7 +11547,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="39"/>
       <c r="B437" s="14" t="s">
         <v>414</v>
@@ -11558,7 +11562,7 @@
       <c r="F437" s="25"/>
       <c r="G437" s="26"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="39"/>
       <c r="B438" s="14" t="s">
         <v>415</v>
@@ -11575,7 +11579,7 @@
       <c r="F438" s="25"/>
       <c r="G438" s="26"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="39"/>
       <c r="B439" s="14" t="s">
         <v>423</v>
@@ -11590,7 +11594,7 @@
       <c r="F439" s="25"/>
       <c r="G439" s="26"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="39"/>
       <c r="B440" s="14" t="s">
         <v>424</v>
@@ -11607,7 +11611,7 @@
       <c r="F440" s="25"/>
       <c r="G440" s="26"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="18" t="s">
         <v>647</v>
       </c>
@@ -11622,7 +11626,7 @@
       <c r="F441" s="22"/>
       <c r="G441" s="23"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="24"/>
       <c r="B442" s="14" t="s">
         <v>648</v>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="G442" s="26"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="24"/>
       <c r="B443" s="14" t="s">
         <v>649</v>
@@ -11658,7 +11662,7 @@
       </c>
       <c r="G443" s="26"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="24"/>
       <c r="B444" s="14" t="s">
         <v>436</v>
@@ -11677,7 +11681,7 @@
       </c>
       <c r="G444" s="26"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="24"/>
       <c r="B445" s="14" t="s">
         <v>650</v>
@@ -11692,7 +11696,7 @@
       <c r="F445" s="25"/>
       <c r="G445" s="26"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="24"/>
       <c r="B446" s="14" t="s">
         <v>651</v>
@@ -11707,7 +11711,7 @@
       <c r="F446" s="25"/>
       <c r="G446" s="26"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="24"/>
       <c r="B447" s="14" t="s">
         <v>652</v>
@@ -11724,7 +11728,7 @@
       <c r="F447" s="25"/>
       <c r="G447" s="26"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="24" t="s">
         <v>9</v>
       </c>
@@ -11743,7 +11747,7 @@
       <c r="F448" s="32"/>
       <c r="G448" s="26"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="24" t="s">
         <v>9</v>
       </c>
@@ -11762,7 +11766,7 @@
       <c r="F449" s="32"/>
       <c r="G449" s="26"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="24"/>
       <c r="B450" s="14" t="s">
         <v>655</v>
@@ -11781,7 +11785,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="24"/>
       <c r="B451" s="14" t="s">
         <v>414</v>
@@ -11796,7 +11800,7 @@
       <c r="F451" s="32"/>
       <c r="G451" s="26"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="31"/>
       <c r="B452" s="14" t="s">
         <v>415</v>
@@ -11813,7 +11817,7 @@
       <c r="F452" s="32"/>
       <c r="G452" s="26"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="31" t="s">
         <v>9</v>
       </c>
@@ -11830,7 +11834,7 @@
       <c r="F453" s="32"/>
       <c r="G453" s="33"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="31" t="s">
         <v>9</v>
       </c>
@@ -11849,7 +11853,7 @@
       <c r="F454" s="32"/>
       <c r="G454" s="33"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="18" t="s">
         <v>656</v>
       </c>
@@ -11864,7 +11868,7 @@
       <c r="F455" s="22"/>
       <c r="G455" s="23"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="24"/>
       <c r="B456" s="14" t="s">
         <v>458</v>
@@ -11883,7 +11887,7 @@
       </c>
       <c r="G456" s="26"/>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="24"/>
       <c r="B457" s="14" t="s">
         <v>657</v>
@@ -11900,7 +11904,7 @@
       </c>
       <c r="G457" s="26"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="24"/>
       <c r="B458" s="14" t="s">
         <v>659</v>
@@ -11915,7 +11919,7 @@
       <c r="F458" s="25"/>
       <c r="G458" s="26"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="24"/>
       <c r="B459" s="14" t="s">
         <v>660</v>
@@ -11930,7 +11934,7 @@
       <c r="F459" s="25"/>
       <c r="G459" s="26"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="24"/>
       <c r="B460" s="14" t="s">
         <v>661</v>
@@ -11945,7 +11949,7 @@
       <c r="F460" s="25"/>
       <c r="G460" s="26"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="24"/>
       <c r="B461" s="14" t="s">
         <v>662</v>
@@ -11962,7 +11966,7 @@
       <c r="F461" s="25"/>
       <c r="G461" s="26"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="24"/>
       <c r="B462" s="14" t="s">
         <v>414</v>
@@ -11977,7 +11981,7 @@
       <c r="F462" s="25"/>
       <c r="G462" s="26"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="24"/>
       <c r="B463" s="14" t="s">
         <v>415</v>
@@ -11994,7 +11998,7 @@
       <c r="F463" s="25"/>
       <c r="G463" s="26"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="24"/>
       <c r="B464" s="14" t="s">
         <v>423</v>
@@ -12009,7 +12013,7 @@
       <c r="F464" s="25"/>
       <c r="G464" s="26"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="24"/>
       <c r="B465" s="14" t="s">
         <v>424</v>
@@ -12026,7 +12030,7 @@
       <c r="F465" s="25"/>
       <c r="G465" s="26"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="18" t="s">
         <v>663</v>
       </c>
@@ -12037,9 +12041,11 @@
       <c r="D466" s="21"/>
       <c r="E466" s="22"/>
       <c r="F466" s="22"/>
-      <c r="G466" s="23"/>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="G466" s="23" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="24"/>
       <c r="B467" s="14" t="s">
         <v>458</v>
@@ -12058,7 +12064,7 @@
       </c>
       <c r="G467" s="26"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="24"/>
       <c r="B468" s="14" t="s">
         <v>664</v>
@@ -12075,7 +12081,7 @@
       </c>
       <c r="G468" s="26"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="24"/>
       <c r="B469" s="14" t="s">
         <v>657</v>
@@ -12090,7 +12096,7 @@
       <c r="F469" s="25"/>
       <c r="G469" s="26"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="24"/>
       <c r="B470" s="14" t="s">
         <v>659</v>
@@ -12105,7 +12111,7 @@
       <c r="F470" s="25"/>
       <c r="G470" s="26"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="24" t="s">
         <v>9</v>
       </c>
@@ -12122,7 +12128,7 @@
       <c r="F471" s="25"/>
       <c r="G471" s="26"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="24"/>
       <c r="B472" s="14" t="s">
         <v>661</v>
@@ -12137,7 +12143,7 @@
       <c r="F472" s="25"/>
       <c r="G472" s="26"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="24"/>
       <c r="B473" s="14" t="s">
         <v>662</v>
@@ -12154,7 +12160,7 @@
       <c r="F473" s="25"/>
       <c r="G473" s="26"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="24" t="s">
         <v>9</v>
       </c>
@@ -12171,7 +12177,7 @@
       <c r="F474" s="25"/>
       <c r="G474" s="26"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="24" t="s">
         <v>9</v>
       </c>
@@ -12190,7 +12196,7 @@
       <c r="F475" s="25"/>
       <c r="G475" s="26"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="24" t="s">
         <v>9</v>
       </c>
@@ -12207,7 +12213,7 @@
       <c r="F476" s="25"/>
       <c r="G476" s="26"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="31" t="s">
         <v>9</v>
       </c>
@@ -12226,7 +12232,7 @@
       <c r="F477" s="32"/>
       <c r="G477" s="33"/>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="18" t="s">
         <v>671</v>
       </c>
@@ -12239,7 +12245,7 @@
       <c r="F478" s="22"/>
       <c r="G478" s="23"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="24"/>
       <c r="B479" s="14" t="s">
         <v>665</v>
@@ -12258,7 +12264,7 @@
       </c>
       <c r="G479" s="26"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="24"/>
       <c r="B480" s="14" t="s">
         <v>666</v>
@@ -12275,7 +12281,7 @@
       <c r="F480" s="25"/>
       <c r="G480" s="26"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="24"/>
       <c r="B481" s="14" t="s">
         <v>667</v>
@@ -12292,7 +12298,7 @@
       <c r="F481" s="25"/>
       <c r="G481" s="26"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="24"/>
       <c r="B482" s="14" t="s">
         <v>668</v>
@@ -12307,7 +12313,7 @@
       <c r="F482" s="25"/>
       <c r="G482" s="26"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="24"/>
       <c r="B483" s="14" t="s">
         <v>669</v>
@@ -12324,7 +12330,7 @@
       <c r="F483" s="25"/>
       <c r="G483" s="34"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="24"/>
       <c r="B484" s="14" t="s">
         <v>670</v>
@@ -12339,7 +12345,7 @@
       <c r="F484" s="25"/>
       <c r="G484" s="34"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="18" t="s">
         <v>672</v>
       </c>
@@ -12352,7 +12358,7 @@
       <c r="F485" s="22"/>
       <c r="G485" s="23"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="24"/>
       <c r="B486" s="14" t="s">
         <v>673</v>
@@ -12371,7 +12377,7 @@
       </c>
       <c r="G486" s="26"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="24"/>
       <c r="B487" s="14" t="s">
         <v>674</v>
@@ -12388,7 +12394,7 @@
       <c r="F487" s="25"/>
       <c r="G487" s="26"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="24"/>
       <c r="B488" s="14" t="s">
         <v>413</v>
@@ -12405,7 +12411,7 @@
       <c r="F488" s="25"/>
       <c r="G488" s="26"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="24"/>
       <c r="B489" s="14" t="s">
         <v>414</v>
@@ -12420,7 +12426,7 @@
       <c r="F489" s="25"/>
       <c r="G489" s="26"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="24" t="s">
         <v>9</v>
       </c>
@@ -12439,7 +12445,7 @@
       <c r="F490" s="25"/>
       <c r="G490" s="26"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="24"/>
       <c r="B491" s="14" t="s">
         <v>423</v>
@@ -12454,7 +12460,7 @@
       <c r="F491" s="25"/>
       <c r="G491" s="26"/>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="24"/>
       <c r="B492" s="14" t="s">
         <v>424</v>
@@ -12471,7 +12477,7 @@
       <c r="F492" s="25"/>
       <c r="G492" s="26"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="18" t="s">
         <v>675</v>
       </c>
@@ -12484,7 +12490,7 @@
       <c r="F493" s="22"/>
       <c r="G493" s="23"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="24" t="s">
         <v>9</v>
       </c>
@@ -12505,7 +12511,7 @@
       </c>
       <c r="G494" s="26"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="24" t="s">
         <v>9</v>
       </c>
@@ -12526,7 +12532,7 @@
       </c>
       <c r="G495" s="26"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="24"/>
       <c r="B496" s="14" t="s">
         <v>678</v>
@@ -12543,7 +12549,7 @@
       <c r="F496" s="25"/>
       <c r="G496" s="26"/>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="31"/>
       <c r="B497" s="14" t="s">
         <v>529</v>
@@ -12558,7 +12564,7 @@
       <c r="F497" s="25"/>
       <c r="G497" s="26"/>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="31"/>
       <c r="B498" s="14" t="s">
         <v>413</v>
@@ -12575,7 +12581,7 @@
       <c r="F498" s="25"/>
       <c r="G498" s="26"/>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="31" t="s">
         <v>9</v>
       </c>
@@ -12596,7 +12602,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="31" t="s">
         <v>9</v>
       </c>
@@ -12613,7 +12619,7 @@
       <c r="F500" s="25"/>
       <c r="G500" s="26"/>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="31"/>
       <c r="B501" s="14" t="s">
         <v>415</v>
@@ -12630,7 +12636,7 @@
       <c r="F501" s="25"/>
       <c r="G501" s="26"/>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="31"/>
       <c r="B502" s="14" t="s">
         <v>423</v>
@@ -12645,7 +12651,7 @@
       <c r="F502" s="25"/>
       <c r="G502" s="33"/>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="31"/>
       <c r="B503" s="14" t="s">
         <v>424</v>
@@ -12662,7 +12668,7 @@
       <c r="F503" s="25"/>
       <c r="G503" s="33"/>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="18" t="s">
         <v>679</v>
       </c>
@@ -12675,7 +12681,7 @@
       <c r="F504" s="22"/>
       <c r="G504" s="23"/>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="24" t="s">
         <v>9</v>
       </c>
@@ -12696,7 +12702,7 @@
       </c>
       <c r="G505" s="26"/>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="24" t="s">
         <v>9</v>
       </c>
@@ -12717,7 +12723,7 @@
       </c>
       <c r="G506" s="26"/>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="24" t="s">
         <v>9</v>
       </c>
@@ -12736,7 +12742,7 @@
       </c>
       <c r="G507" s="26"/>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="31"/>
       <c r="B508" s="14" t="s">
         <v>683</v>
@@ -12753,7 +12759,7 @@
       <c r="F508" s="32"/>
       <c r="G508" s="26"/>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="31"/>
       <c r="B509" s="14" t="s">
         <v>414</v>
@@ -12768,7 +12774,7 @@
       <c r="F509" s="32"/>
       <c r="G509" s="26"/>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="31" t="s">
         <v>9</v>
       </c>
@@ -12787,7 +12793,7 @@
       <c r="F510" s="32"/>
       <c r="G510" s="26"/>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="31" t="s">
         <v>9</v>
       </c>
@@ -12804,7 +12810,7 @@
       <c r="F511" s="32"/>
       <c r="G511" s="26"/>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="31"/>
       <c r="B512" s="14" t="s">
         <v>424</v>
@@ -12821,7 +12827,7 @@
       <c r="F512" s="32"/>
       <c r="G512" s="26"/>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="18" t="s">
         <v>684</v>
       </c>
@@ -12836,7 +12842,7 @@
       <c r="F513" s="22"/>
       <c r="G513" s="23"/>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="24" t="s">
         <v>9</v>
       </c>
@@ -12857,7 +12863,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="24" t="s">
         <v>9</v>
       </c>
@@ -12878,7 +12884,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="24"/>
       <c r="B516" s="14" t="s">
         <v>687</v>
@@ -12897,7 +12903,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="24"/>
       <c r="B517" s="14" t="s">
         <v>688</v>
@@ -12914,7 +12920,7 @@
       <c r="F517" s="25"/>
       <c r="G517" s="26"/>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="24"/>
       <c r="B518" s="14" t="s">
         <v>689</v>
@@ -12931,7 +12937,7 @@
       <c r="F518" s="25"/>
       <c r="G518" s="26"/>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="24"/>
       <c r="B519" s="14" t="s">
         <v>690</v>
@@ -12948,7 +12954,7 @@
       <c r="F519" s="25"/>
       <c r="G519" s="26"/>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="24"/>
       <c r="B520" s="14" t="s">
         <v>691</v>
@@ -12965,7 +12971,7 @@
       <c r="F520" s="25"/>
       <c r="G520" s="26"/>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="24" t="s">
         <v>9</v>
       </c>
@@ -12982,7 +12988,7 @@
       <c r="F521" s="25"/>
       <c r="G521" s="26"/>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="18" t="s">
         <v>693</v>
       </c>
@@ -12995,7 +13001,7 @@
       <c r="F522" s="22"/>
       <c r="G522" s="23"/>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="24" t="s">
         <v>9</v>
       </c>
@@ -13016,7 +13022,7 @@
       </c>
       <c r="G523" s="26"/>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="24" t="s">
         <v>9</v>
       </c>
@@ -13035,7 +13041,7 @@
       <c r="F524" s="25"/>
       <c r="G524" s="26"/>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="24"/>
       <c r="B525" s="14" t="s">
         <v>695</v>
@@ -13052,7 +13058,7 @@
       <c r="F525" s="25"/>
       <c r="G525" s="26"/>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="24"/>
       <c r="B526" s="14" t="s">
         <v>696</v>
@@ -13069,7 +13075,7 @@
       <c r="F526" s="25"/>
       <c r="G526" s="26"/>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="24"/>
       <c r="B527" s="14" t="s">
         <v>697</v>
@@ -13086,7 +13092,7 @@
       <c r="F527" s="25"/>
       <c r="G527" s="26"/>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="24"/>
       <c r="B528" s="14" t="s">
         <v>414</v>
@@ -13101,7 +13107,7 @@
       <c r="F528" s="25"/>
       <c r="G528" s="26"/>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="24" t="s">
         <v>9</v>
       </c>
@@ -13120,7 +13126,7 @@
       <c r="F529" s="25"/>
       <c r="G529" s="26"/>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="24"/>
       <c r="B530" s="14" t="s">
         <v>423</v>
@@ -13135,7 +13141,7 @@
       <c r="F530" s="25"/>
       <c r="G530" s="26"/>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="24"/>
       <c r="B531" s="14" t="s">
         <v>424</v>
@@ -13152,7 +13158,7 @@
       <c r="F531" s="25"/>
       <c r="G531" s="26"/>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="18" t="s">
         <v>698</v>
       </c>
@@ -13165,7 +13171,7 @@
       <c r="F532" s="22"/>
       <c r="G532" s="23"/>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="24" t="s">
         <v>9</v>
       </c>
@@ -13186,7 +13192,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="24" t="s">
         <v>9</v>
       </c>
@@ -13207,7 +13213,7 @@
       </c>
       <c r="G534" s="26"/>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="24" t="s">
         <v>9</v>
       </c>
@@ -13224,7 +13230,7 @@
       <c r="F535" s="25"/>
       <c r="G535" s="26"/>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="24" t="s">
         <v>9</v>
       </c>
@@ -13241,7 +13247,7 @@
       <c r="F536" s="25"/>
       <c r="G536" s="26"/>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="24"/>
       <c r="B537" s="14" t="s">
         <v>701</v>
@@ -13256,7 +13262,7 @@
       <c r="F537" s="25"/>
       <c r="G537" s="26"/>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="24"/>
       <c r="B538" s="14" t="s">
         <v>414</v>
@@ -13271,7 +13277,7 @@
       <c r="F538" s="25"/>
       <c r="G538" s="26"/>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="24" t="s">
         <v>9</v>
       </c>
@@ -13290,7 +13296,7 @@
       <c r="F539" s="25"/>
       <c r="G539" s="26"/>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="24"/>
       <c r="B540" s="14" t="s">
         <v>423</v>
@@ -13305,7 +13311,7 @@
       <c r="F540" s="25"/>
       <c r="G540" s="26"/>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="24"/>
       <c r="B541" s="14" t="s">
         <v>424</v>
@@ -13322,7 +13328,7 @@
       <c r="F541" s="25"/>
       <c r="G541" s="26"/>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="18" t="s">
         <v>702</v>
       </c>
@@ -13335,7 +13341,7 @@
       <c r="F542" s="22"/>
       <c r="G542" s="23"/>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="24" t="s">
         <v>9</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="24" t="s">
         <v>9</v>
       </c>
@@ -13377,7 +13383,7 @@
       </c>
       <c r="G544" s="26"/>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="24"/>
       <c r="B545" s="14" t="s">
         <v>458</v>
@@ -13396,7 +13402,7 @@
       </c>
       <c r="G545" s="26"/>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="24" t="s">
         <v>9</v>
       </c>
@@ -13413,7 +13419,7 @@
       <c r="F546" s="25"/>
       <c r="G546" s="26"/>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="24"/>
       <c r="B547" s="14" t="s">
         <v>705</v>
@@ -13428,7 +13434,7 @@
       <c r="F547" s="25"/>
       <c r="G547" s="26"/>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="24"/>
       <c r="B548" s="14" t="s">
         <v>661</v>
@@ -13443,7 +13449,7 @@
       <c r="F548" s="25"/>
       <c r="G548" s="26"/>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="24"/>
       <c r="B549" s="14" t="s">
         <v>414</v>
@@ -13458,7 +13464,7 @@
       <c r="F549" s="25"/>
       <c r="G549" s="26"/>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="24"/>
       <c r="B550" s="14" t="s">
         <v>415</v>
@@ -13475,7 +13481,7 @@
       <c r="F550" s="25"/>
       <c r="G550" s="26"/>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="24"/>
       <c r="B551" s="14" t="s">
         <v>423</v>
@@ -13490,7 +13496,7 @@
       <c r="F551" s="25"/>
       <c r="G551" s="26"/>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="24" t="s">
         <v>9</v>
       </c>
@@ -13509,7 +13515,7 @@
       <c r="F552" s="25"/>
       <c r="G552" s="26"/>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="18" t="s">
         <v>707</v>
       </c>
@@ -13522,7 +13528,7 @@
       <c r="F553" s="22"/>
       <c r="G553" s="23"/>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="24" t="s">
         <v>9</v>
       </c>
@@ -13543,7 +13549,7 @@
       </c>
       <c r="G554" s="26"/>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="24" t="s">
         <v>9</v>
       </c>
@@ -13562,7 +13568,7 @@
       <c r="F555" s="25"/>
       <c r="G555" s="26"/>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="24" t="s">
         <v>9</v>
       </c>
@@ -13581,7 +13587,7 @@
       <c r="F556" s="25"/>
       <c r="G556" s="26"/>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="24"/>
       <c r="B557" s="14" t="s">
         <v>492</v>
@@ -13600,7 +13606,7 @@
       </c>
       <c r="G557" s="26"/>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="24"/>
       <c r="B558" s="14" t="s">
         <v>710</v>
@@ -13619,7 +13625,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="24"/>
       <c r="B559" s="14" t="s">
         <v>711</v>
@@ -13638,7 +13644,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="24"/>
       <c r="B560" s="14" t="s">
         <v>712</v>
@@ -13657,7 +13663,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="24" t="s">
         <v>9</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="24" t="s">
         <v>9</v>
       </c>
@@ -13699,7 +13705,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" s="24" t="s">
         <v>9</v>
       </c>
@@ -13716,7 +13722,7 @@
       <c r="F563" s="25"/>
       <c r="G563" s="26"/>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="24" t="s">
         <v>9</v>
       </c>
@@ -13733,7 +13739,7 @@
       <c r="F564" s="25"/>
       <c r="G564" s="26"/>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" s="24" t="s">
         <v>9</v>
       </c>
@@ -13754,7 +13760,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" s="24" t="s">
         <v>9</v>
       </c>
@@ -13773,7 +13779,7 @@
       <c r="F566" s="25"/>
       <c r="G566" s="26"/>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" s="24"/>
       <c r="B567" s="14" t="s">
         <v>719</v>
@@ -13792,7 +13798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" s="24" t="s">
         <v>9</v>
       </c>
@@ -13813,7 +13819,7 @@
       </c>
       <c r="G568" s="26"/>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" s="24"/>
       <c r="B569" s="14" t="s">
         <v>662</v>
@@ -13830,7 +13836,7 @@
       <c r="F569" s="25"/>
       <c r="G569" s="26"/>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" s="31"/>
       <c r="B570" s="14" t="s">
         <v>720</v>
@@ -13849,7 +13855,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" s="31"/>
       <c r="B571" s="14" t="s">
         <v>721</v>
@@ -13868,7 +13874,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" s="31" t="s">
         <v>9</v>
       </c>
@@ -13887,7 +13893,7 @@
       <c r="F572" s="25"/>
       <c r="G572" s="26"/>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" s="31" t="s">
         <v>9</v>
       </c>
@@ -13908,7 +13914,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" s="31"/>
       <c r="B574" s="14" t="s">
         <v>413</v>
@@ -13925,7 +13931,7 @@
       <c r="F574" s="25"/>
       <c r="G574" s="26"/>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" s="31"/>
       <c r="B575" s="14" t="s">
         <v>414</v>
@@ -13940,7 +13946,7 @@
       <c r="F575" s="25"/>
       <c r="G575" s="26"/>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" s="31"/>
       <c r="B576" s="14" t="s">
         <v>415</v>
@@ -13957,7 +13963,7 @@
       <c r="F576" s="25"/>
       <c r="G576" s="26"/>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" s="31"/>
       <c r="B577" s="14" t="s">
         <v>423</v>
@@ -13972,7 +13978,7 @@
       <c r="F577" s="32"/>
       <c r="G577" s="33"/>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" s="31"/>
       <c r="B578" s="14" t="s">
         <v>424</v>
@@ -13989,7 +13995,7 @@
       <c r="F578" s="32"/>
       <c r="G578" s="33"/>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" s="18" t="s">
         <v>723</v>
       </c>
@@ -14002,7 +14008,7 @@
       <c r="F579" s="22"/>
       <c r="G579" s="23"/>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" s="24" t="s">
         <v>9</v>
       </c>
@@ -14023,7 +14029,7 @@
       </c>
       <c r="G580" s="26"/>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" s="24" t="s">
         <v>9</v>
       </c>
@@ -14044,7 +14050,7 @@
       </c>
       <c r="G581" s="26"/>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" s="24"/>
       <c r="B582" s="14" t="s">
         <v>427</v>
@@ -14063,7 +14069,7 @@
       </c>
       <c r="G582" s="26"/>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" s="24"/>
       <c r="B583" s="14" t="s">
         <v>724</v>
@@ -14078,7 +14084,7 @@
       <c r="F583" s="25"/>
       <c r="G583" s="26"/>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" s="24"/>
       <c r="B584" s="14" t="s">
         <v>725</v>
@@ -14095,7 +14101,7 @@
       <c r="F584" s="25"/>
       <c r="G584" s="26"/>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" s="24"/>
       <c r="B585" s="14" t="s">
         <v>726</v>
@@ -14110,7 +14116,7 @@
       <c r="F585" s="25"/>
       <c r="G585" s="26"/>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" s="24" t="s">
         <v>9</v>
       </c>
@@ -14127,7 +14133,7 @@
       <c r="F586" s="25"/>
       <c r="G586" s="26"/>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" s="24"/>
       <c r="B587" s="14" t="s">
         <v>713</v>
@@ -14146,7 +14152,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" s="24"/>
       <c r="B588" s="14" t="s">
         <v>727</v>
@@ -14163,7 +14169,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" s="24"/>
       <c r="B589" s="14" t="s">
         <v>728</v>
@@ -14178,7 +14184,7 @@
       <c r="F589" s="25"/>
       <c r="G589" s="26"/>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" s="24"/>
       <c r="B590" s="14" t="s">
         <v>729</v>
@@ -14193,7 +14199,7 @@
       <c r="F590" s="25"/>
       <c r="G590" s="26"/>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" s="24" t="s">
         <v>9</v>
       </c>
@@ -14210,7 +14216,7 @@
       <c r="F591" s="25"/>
       <c r="G591" s="26"/>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" s="24" t="s">
         <v>9</v>
       </c>
@@ -14227,7 +14233,7 @@
       <c r="F592" s="25"/>
       <c r="G592" s="26"/>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" s="24" t="s">
         <v>9</v>
       </c>
@@ -14244,7 +14250,7 @@
       <c r="F593" s="25"/>
       <c r="G593" s="26"/>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" s="24"/>
       <c r="B594" s="14" t="s">
         <v>660</v>
@@ -14259,7 +14265,7 @@
       <c r="F594" s="25"/>
       <c r="G594" s="26"/>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" s="24"/>
       <c r="B595" s="14" t="s">
         <v>661</v>
@@ -14274,7 +14280,7 @@
       <c r="F595" s="25"/>
       <c r="G595" s="26"/>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" s="24"/>
       <c r="B596" s="14" t="s">
         <v>662</v>
@@ -14291,7 +14297,7 @@
       <c r="F596" s="25"/>
       <c r="G596" s="26"/>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" s="24"/>
       <c r="B597" s="14" t="s">
         <v>730</v>
@@ -14306,7 +14312,7 @@
       <c r="F597" s="25"/>
       <c r="G597" s="26"/>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" s="24"/>
       <c r="B598" s="14" t="s">
         <v>731</v>
@@ -14321,7 +14327,7 @@
       <c r="F598" s="25"/>
       <c r="G598" s="26"/>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" s="24"/>
       <c r="B599" s="14" t="s">
         <v>732</v>
@@ -14336,7 +14342,7 @@
       <c r="F599" s="25"/>
       <c r="G599" s="26"/>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" s="31"/>
       <c r="B600" s="14" t="s">
         <v>648</v>
@@ -14355,7 +14361,7 @@
       </c>
       <c r="G600" s="33"/>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" s="31"/>
       <c r="B601" s="14" t="s">
         <v>649</v>
@@ -14372,7 +14378,7 @@
       </c>
       <c r="G601" s="33"/>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" s="31" t="s">
         <v>9</v>
       </c>
@@ -14391,7 +14397,7 @@
       <c r="F602" s="25"/>
       <c r="G602" s="33"/>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" s="31" t="s">
         <v>9</v>
       </c>
@@ -14410,7 +14416,7 @@
       <c r="F603" s="25"/>
       <c r="G603" s="33"/>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" s="31"/>
       <c r="B604" s="14" t="s">
         <v>414</v>
@@ -14425,7 +14431,7 @@
       <c r="F604" s="25"/>
       <c r="G604" s="33"/>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" s="31"/>
       <c r="B605" s="14" t="s">
         <v>415</v>
@@ -14442,7 +14448,7 @@
       <c r="F605" s="25"/>
       <c r="G605" s="33"/>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" s="31"/>
       <c r="B606" s="14" t="s">
         <v>423</v>
@@ -14457,7 +14463,7 @@
       <c r="F606" s="25"/>
       <c r="G606" s="33"/>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" s="31"/>
       <c r="B607" s="14" t="s">
         <v>424</v>
@@ -14474,7 +14480,7 @@
       <c r="F607" s="32"/>
       <c r="G607" s="33"/>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" s="18" t="s">
         <v>733</v>
       </c>
@@ -14487,7 +14493,7 @@
       <c r="F608" s="22"/>
       <c r="G608" s="23"/>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" s="24"/>
       <c r="B609" s="14" t="s">
         <v>409</v>
@@ -14506,7 +14512,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" s="24"/>
       <c r="B610" s="14" t="s">
         <v>493</v>
@@ -14523,7 +14529,7 @@
       <c r="F610" s="25"/>
       <c r="G610" s="26"/>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="24"/>
       <c r="B611" s="14" t="s">
         <v>573</v>
@@ -14542,7 +14548,7 @@
       </c>
       <c r="G611" s="26"/>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" s="24"/>
       <c r="B612" s="14" t="s">
         <v>574</v>
@@ -14559,7 +14565,7 @@
       <c r="F612" s="25"/>
       <c r="G612" s="34"/>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" s="24"/>
       <c r="B613" s="14" t="s">
         <v>734</v>
@@ -14576,7 +14582,7 @@
       <c r="F613" s="25"/>
       <c r="G613" s="34"/>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" s="24" t="s">
         <v>9</v>
       </c>
@@ -14593,7 +14599,7 @@
       <c r="F614" s="25"/>
       <c r="G614" s="26"/>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" s="24"/>
       <c r="B615" s="14" t="s">
         <v>414</v>
@@ -14608,7 +14614,7 @@
       <c r="F615" s="25"/>
       <c r="G615" s="26"/>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" s="24"/>
       <c r="B616" s="14" t="s">
         <v>415</v>
@@ -14625,7 +14631,7 @@
       <c r="F616" s="25"/>
       <c r="G616" s="26"/>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" s="24"/>
       <c r="B617" s="14" t="s">
         <v>423</v>
@@ -14640,7 +14646,7 @@
       <c r="F617" s="25"/>
       <c r="G617" s="26"/>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" s="31" t="s">
         <v>9</v>
       </c>
@@ -14659,7 +14665,7 @@
       <c r="F618" s="32"/>
       <c r="G618" s="33"/>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="18" t="s">
         <v>735</v>
       </c>
@@ -14674,7 +14680,7 @@
       <c r="F619" s="22"/>
       <c r="G619" s="23"/>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" s="24"/>
       <c r="B620" s="14" t="s">
         <v>736</v>
@@ -14693,7 +14699,7 @@
       </c>
       <c r="G620" s="26"/>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" s="24"/>
       <c r="B621" s="14" t="s">
         <v>737</v>
@@ -14710,7 +14716,7 @@
       <c r="F621" s="25"/>
       <c r="G621" s="34"/>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" s="24"/>
       <c r="B622" s="14" t="s">
         <v>738</v>
@@ -14729,7 +14735,7 @@
       </c>
       <c r="G622" s="26"/>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" s="31" t="s">
         <v>9</v>
       </c>
@@ -14750,7 +14756,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" s="31" t="s">
         <v>9</v>
       </c>
@@ -14767,7 +14773,7 @@
       <c r="F624" s="32"/>
       <c r="G624" s="26"/>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" s="31"/>
       <c r="B625" s="14" t="s">
         <v>415</v>
@@ -14784,7 +14790,7 @@
       <c r="F625" s="32"/>
       <c r="G625" s="26"/>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" s="31"/>
       <c r="B626" s="14" t="s">
         <v>423</v>
@@ -14799,7 +14805,7 @@
       <c r="F626" s="32"/>
       <c r="G626" s="26"/>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" s="31"/>
       <c r="B627" s="14" t="s">
         <v>424</v>
@@ -14816,7 +14822,7 @@
       <c r="F627" s="32"/>
       <c r="G627" s="33"/>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" s="18" t="s">
         <v>739</v>
       </c>
@@ -14831,7 +14837,7 @@
       <c r="F628" s="22"/>
       <c r="G628" s="23"/>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" s="24"/>
       <c r="B629" s="14" t="s">
         <v>458</v>
@@ -14850,7 +14856,7 @@
       </c>
       <c r="G629" s="26"/>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" s="24"/>
       <c r="B630" s="14" t="s">
         <v>740</v>
@@ -14869,7 +14875,7 @@
       </c>
       <c r="G630" s="34"/>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" s="24"/>
       <c r="B631" s="14" t="s">
         <v>741</v>
@@ -14886,7 +14892,7 @@
       <c r="F631" s="25"/>
       <c r="G631" s="26"/>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" s="24"/>
       <c r="B632" s="14" t="s">
         <v>514</v>
@@ -14901,7 +14907,7 @@
       <c r="F632" s="25"/>
       <c r="G632" s="26"/>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" s="24"/>
       <c r="B633" s="14" t="s">
         <v>742</v>
@@ -14918,7 +14924,7 @@
       <c r="F633" s="25"/>
       <c r="G633" s="26"/>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" s="24"/>
       <c r="B634" s="14" t="s">
         <v>736</v>
@@ -14937,7 +14943,7 @@
       </c>
       <c r="G634" s="26"/>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" s="24"/>
       <c r="B635" s="14" t="s">
         <v>743</v>
@@ -14954,7 +14960,7 @@
       <c r="F635" s="25"/>
       <c r="G635" s="26"/>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" s="24"/>
       <c r="B636" s="14" t="s">
         <v>737</v>
@@ -14971,7 +14977,7 @@
       <c r="F636" s="25"/>
       <c r="G636" s="26"/>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" s="24"/>
       <c r="B637" s="14" t="s">
         <v>658</v>
@@ -14986,7 +14992,7 @@
       <c r="F637" s="25"/>
       <c r="G637" s="26"/>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" s="24"/>
       <c r="B638" s="14" t="s">
         <v>744</v>
@@ -15005,7 +15011,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" s="24"/>
       <c r="B639" s="14" t="s">
         <v>745</v>
@@ -15024,7 +15030,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" s="24"/>
       <c r="B640" s="14" t="s">
         <v>746</v>
@@ -15039,7 +15045,7 @@
       <c r="F640" s="25"/>
       <c r="G640" s="26"/>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" s="24"/>
       <c r="B641" s="14" t="s">
         <v>747</v>
@@ -15054,7 +15060,7 @@
       <c r="F641" s="25"/>
       <c r="G641" s="26"/>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" s="24"/>
       <c r="B642" s="14" t="s">
         <v>748</v>
@@ -15069,7 +15075,7 @@
       <c r="F642" s="25"/>
       <c r="G642" s="26"/>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" s="24"/>
       <c r="B643" s="14" t="s">
         <v>749</v>
@@ -15084,7 +15090,7 @@
       <c r="F643" s="25"/>
       <c r="G643" s="26"/>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" s="24"/>
       <c r="B644" s="14" t="s">
         <v>750</v>
@@ -15103,7 +15109,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" s="24"/>
       <c r="B645" s="14" t="s">
         <v>413</v>
@@ -15120,7 +15126,7 @@
       <c r="F645" s="25"/>
       <c r="G645" s="26"/>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" s="24"/>
       <c r="B646" s="14" t="s">
         <v>414</v>
@@ -15135,7 +15141,7 @@
       <c r="F646" s="25"/>
       <c r="G646" s="26"/>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" s="24"/>
       <c r="B647" s="14" t="s">
         <v>415</v>
@@ -15152,7 +15158,7 @@
       <c r="F647" s="25"/>
       <c r="G647" s="26"/>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" s="24"/>
       <c r="B648" s="14" t="s">
         <v>423</v>
@@ -15167,7 +15173,7 @@
       <c r="F648" s="25"/>
       <c r="G648" s="26"/>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" s="24"/>
       <c r="B649" s="14" t="s">
         <v>424</v>
@@ -15184,7 +15190,7 @@
       <c r="F649" s="25"/>
       <c r="G649" s="26"/>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" s="18" t="s">
         <v>751</v>
       </c>
@@ -15199,7 +15205,7 @@
       <c r="F650" s="22"/>
       <c r="G650" s="23"/>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" s="24"/>
       <c r="B651" s="14" t="s">
         <v>681</v>
@@ -15218,7 +15224,7 @@
       </c>
       <c r="G651" s="26"/>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" s="24"/>
       <c r="B652" s="14" t="s">
         <v>752</v>
@@ -15235,7 +15241,7 @@
       <c r="F652" s="25"/>
       <c r="G652" s="26"/>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" s="24"/>
       <c r="B653" s="14" t="s">
         <v>753</v>
@@ -15252,7 +15258,7 @@
       <c r="F653" s="25"/>
       <c r="G653" s="26"/>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" s="24"/>
       <c r="B654" s="14" t="s">
         <v>754</v>
@@ -15269,7 +15275,7 @@
       <c r="F654" s="25"/>
       <c r="G654" s="34"/>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" s="24" t="s">
         <v>9</v>
       </c>
@@ -15288,7 +15294,7 @@
       <c r="F655" s="25"/>
       <c r="G655" s="26"/>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" s="24"/>
       <c r="B656" s="14" t="s">
         <v>756</v>
@@ -15305,7 +15311,7 @@
       <c r="F656" s="25"/>
       <c r="G656" s="26"/>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" s="24"/>
       <c r="B657" s="14" t="s">
         <v>757</v>
@@ -15322,7 +15328,7 @@
       <c r="F657" s="25"/>
       <c r="G657" s="26"/>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" s="24"/>
       <c r="B658" s="14" t="s">
         <v>758</v>
@@ -15337,7 +15343,7 @@
       <c r="F658" s="25"/>
       <c r="G658" s="26"/>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" s="24"/>
       <c r="B659" s="14" t="s">
         <v>759</v>
@@ -15352,7 +15358,7 @@
       <c r="F659" s="25"/>
       <c r="G659" s="26"/>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" s="24"/>
       <c r="B660" s="14" t="s">
         <v>760</v>
@@ -15369,7 +15375,7 @@
       <c r="F660" s="25"/>
       <c r="G660" s="26"/>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" s="31" t="s">
         <v>9</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" s="31" t="s">
         <v>9</v>
       </c>
@@ -15407,7 +15413,7 @@
       <c r="F662" s="25"/>
       <c r="G662" s="26"/>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" s="31"/>
       <c r="B663" s="14" t="s">
         <v>415</v>
@@ -15424,7 +15430,7 @@
       <c r="F663" s="25"/>
       <c r="G663" s="26"/>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" s="31"/>
       <c r="B664" s="14" t="s">
         <v>423</v>
@@ -15439,7 +15445,7 @@
       <c r="F664" s="25"/>
       <c r="G664" s="26"/>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" s="31"/>
       <c r="B665" s="14" t="s">
         <v>424</v>
@@ -15456,7 +15462,7 @@
       <c r="F665" s="32"/>
       <c r="G665" s="26"/>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" s="18" t="s">
         <v>762</v>
       </c>
@@ -15471,7 +15477,7 @@
       <c r="F666" s="22"/>
       <c r="G666" s="23"/>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" s="24" t="s">
         <v>9</v>
       </c>
@@ -15492,7 +15498,7 @@
       </c>
       <c r="G667" s="26"/>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" s="24"/>
       <c r="B668" s="14" t="s">
         <v>763</v>
@@ -15509,7 +15515,7 @@
       <c r="F668" s="25"/>
       <c r="G668" s="26"/>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" s="24"/>
       <c r="B669" s="14" t="s">
         <v>764</v>
@@ -15526,7 +15532,7 @@
       <c r="F669" s="25"/>
       <c r="G669" s="26"/>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" s="24"/>
       <c r="B670" s="14" t="s">
         <v>765</v>
@@ -15543,7 +15549,7 @@
       <c r="F670" s="25"/>
       <c r="G670" s="26"/>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" s="24"/>
       <c r="B671" s="14" t="s">
         <v>766</v>
@@ -15562,7 +15568,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" s="24"/>
       <c r="B672" s="14" t="s">
         <v>767</v>
@@ -15579,7 +15585,7 @@
       <c r="F672" s="25"/>
       <c r="G672" s="26"/>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="24"/>
       <c r="B673" s="14" t="s">
         <v>768</v>
@@ -15596,7 +15602,7 @@
       <c r="F673" s="25"/>
       <c r="G673" s="26"/>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="24"/>
       <c r="B674" s="14" t="s">
         <v>769</v>
@@ -15613,7 +15619,7 @@
       <c r="F674" s="25"/>
       <c r="G674" s="26"/>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="24"/>
       <c r="B675" s="14" t="s">
         <v>770</v>
@@ -15630,7 +15636,7 @@
       <c r="F675" s="25"/>
       <c r="G675" s="26"/>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="24"/>
       <c r="B676" s="14" t="s">
         <v>771</v>
@@ -15647,7 +15653,7 @@
       <c r="F676" s="25"/>
       <c r="G676" s="26"/>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="24"/>
       <c r="B677" s="14" t="s">
         <v>772</v>
@@ -15664,7 +15670,7 @@
       <c r="F677" s="25"/>
       <c r="G677" s="26"/>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="24"/>
       <c r="B678" s="14" t="s">
         <v>773</v>
@@ -15681,7 +15687,7 @@
       <c r="F678" s="25"/>
       <c r="G678" s="26"/>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" s="24"/>
       <c r="B679" s="14" t="s">
         <v>774</v>
@@ -15698,7 +15704,7 @@
       <c r="F679" s="25"/>
       <c r="G679" s="26"/>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="24"/>
       <c r="B680" s="14" t="s">
         <v>775</v>
@@ -15715,7 +15721,7 @@
       <c r="F680" s="25"/>
       <c r="G680" s="26"/>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="24"/>
       <c r="B681" s="14" t="s">
         <v>386</v>
@@ -15734,7 +15740,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="24"/>
       <c r="B682" s="14" t="s">
         <v>776</v>
@@ -15751,7 +15757,7 @@
       <c r="F682" s="25"/>
       <c r="G682" s="26"/>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="24"/>
       <c r="B683" s="14" t="s">
         <v>777</v>
@@ -15771,7 +15777,7 @@
       </c>
       <c r="H683" s="5"/>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="24"/>
       <c r="B684" s="14" t="s">
         <v>778</v>
@@ -15787,7 +15793,7 @@
       <c r="G684" s="26"/>
       <c r="H684" s="5"/>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="24"/>
       <c r="B685" s="14" t="s">
         <v>779</v>
@@ -15803,7 +15809,7 @@
       <c r="G685" s="26"/>
       <c r="H685" s="5"/>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="24"/>
       <c r="B686" s="14" t="s">
         <v>780</v>
@@ -15819,7 +15825,7 @@
       <c r="G686" s="26"/>
       <c r="H686" s="5"/>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="24"/>
       <c r="B687" s="14" t="s">
         <v>781</v>
@@ -15835,7 +15841,7 @@
       <c r="G687" s="26"/>
       <c r="H687" s="5"/>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="24" t="s">
         <v>9</v>
       </c>
@@ -15853,7 +15859,7 @@
       <c r="G688" s="26"/>
       <c r="H688" s="5"/>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="24" t="s">
         <v>9</v>
       </c>
@@ -15873,7 +15879,7 @@
       <c r="G689" s="26"/>
       <c r="H689" s="5"/>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="24"/>
       <c r="B690" s="14" t="s">
         <v>422</v>
@@ -15893,7 +15899,7 @@
       </c>
       <c r="H690" s="5"/>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="24"/>
       <c r="B691" s="14" t="s">
         <v>414</v>
@@ -15909,7 +15915,7 @@
       <c r="G691" s="26"/>
       <c r="H691" s="5"/>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="31"/>
       <c r="B692" s="14" t="s">
         <v>415</v>
@@ -15926,7 +15932,7 @@
       <c r="F692" s="32"/>
       <c r="G692" s="33"/>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="31"/>
       <c r="B693" s="14" t="s">
         <v>423</v>
@@ -15941,7 +15947,7 @@
       <c r="F693" s="32"/>
       <c r="G693" s="33"/>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" s="31"/>
       <c r="B694" s="14" t="s">
         <v>424</v>
@@ -15958,7 +15964,7 @@
       <c r="F694" s="32"/>
       <c r="G694" s="33"/>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="18" t="s">
         <v>783</v>
       </c>
@@ -15973,7 +15979,7 @@
       <c r="F695" s="22"/>
       <c r="G695" s="23"/>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="24" t="s">
         <v>9</v>
       </c>
@@ -15994,7 +16000,7 @@
       </c>
       <c r="G696" s="26"/>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="24"/>
       <c r="B697" s="14" t="s">
         <v>493</v>
@@ -16013,7 +16019,7 @@
       </c>
       <c r="G697" s="26"/>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="24"/>
       <c r="B698" s="14" t="s">
         <v>699</v>
@@ -16028,7 +16034,7 @@
       <c r="F698" s="25"/>
       <c r="G698" s="26"/>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="24"/>
       <c r="B699" s="14" t="s">
         <v>701</v>
@@ -16043,7 +16049,7 @@
       <c r="F699" s="25"/>
       <c r="G699" s="26"/>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="24"/>
       <c r="B700" s="14" t="s">
         <v>414</v>
@@ -16058,7 +16064,7 @@
       <c r="F700" s="25"/>
       <c r="G700" s="26"/>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701" s="24"/>
       <c r="B701" s="14" t="s">
         <v>415</v>
@@ -16075,7 +16081,7 @@
       <c r="F701" s="25"/>
       <c r="G701" s="26"/>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="24"/>
       <c r="B702" s="14" t="s">
         <v>423</v>
@@ -16090,7 +16096,7 @@
       <c r="F702" s="25"/>
       <c r="G702" s="26"/>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="24"/>
       <c r="B703" s="14" t="s">
         <v>424</v>
@@ -16107,7 +16113,7 @@
       <c r="F703" s="25"/>
       <c r="G703" s="26"/>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="18" t="s">
         <v>784</v>
       </c>
@@ -16122,7 +16128,7 @@
       <c r="F704" s="22"/>
       <c r="G704" s="23"/>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" s="24" t="s">
         <v>9</v>
       </c>
@@ -16143,7 +16149,7 @@
       </c>
       <c r="G705" s="26"/>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" s="24"/>
       <c r="B706" s="14" t="s">
         <v>785</v>
@@ -16160,7 +16166,7 @@
       <c r="F706" s="25"/>
       <c r="G706" s="26"/>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" s="24"/>
       <c r="B707" s="14" t="s">
         <v>529</v>
@@ -16175,7 +16181,7 @@
       <c r="F707" s="25"/>
       <c r="G707" s="26"/>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" s="24"/>
       <c r="B708" s="14" t="s">
         <v>734</v>
@@ -16192,7 +16198,7 @@
       <c r="F708" s="25"/>
       <c r="G708" s="26"/>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" s="31"/>
       <c r="B709" s="14" t="s">
         <v>786</v>
@@ -16209,7 +16215,7 @@
       <c r="F709" s="25"/>
       <c r="G709" s="26"/>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" s="31"/>
       <c r="B710" s="14" t="s">
         <v>787</v>
@@ -16226,7 +16232,7 @@
       <c r="F710" s="25"/>
       <c r="G710" s="26"/>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" s="31" t="s">
         <v>9</v>
       </c>
@@ -16247,7 +16253,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" s="31" t="s">
         <v>9</v>
       </c>
@@ -16268,7 +16274,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" s="31"/>
       <c r="B713" s="14" t="s">
         <v>414</v>
@@ -16283,7 +16289,7 @@
       <c r="F713" s="25"/>
       <c r="G713" s="26"/>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" s="31"/>
       <c r="B714" s="14" t="s">
         <v>415</v>
@@ -16300,7 +16306,7 @@
       <c r="F714" s="25"/>
       <c r="G714" s="26"/>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" s="31"/>
       <c r="B715" s="14" t="s">
         <v>423</v>
@@ -16315,7 +16321,7 @@
       <c r="F715" s="25"/>
       <c r="G715" s="26"/>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" s="31"/>
       <c r="B716" s="14" t="s">
         <v>424</v>
@@ -16332,7 +16338,7 @@
       <c r="F716" s="32"/>
       <c r="G716" s="33"/>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" s="18" t="s">
         <v>788</v>
       </c>
@@ -16347,7 +16353,7 @@
       <c r="F717" s="22"/>
       <c r="G717" s="23"/>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" s="24" t="s">
         <v>9</v>
       </c>
@@ -16368,7 +16374,7 @@
       </c>
       <c r="G718" s="26"/>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" s="24"/>
       <c r="B719" s="14" t="s">
         <v>573</v>
@@ -16387,7 +16393,7 @@
       </c>
       <c r="G719" s="26"/>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" s="24"/>
       <c r="B720" s="14" t="s">
         <v>789</v>
@@ -16406,7 +16412,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" s="24"/>
       <c r="B721" s="14" t="s">
         <v>422</v>
@@ -16425,7 +16431,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" s="24"/>
       <c r="B722" s="14" t="s">
         <v>414</v>
@@ -16440,7 +16446,7 @@
       <c r="F722" s="25"/>
       <c r="G722" s="26"/>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" s="24"/>
       <c r="B723" s="14" t="s">
         <v>415</v>
@@ -16457,7 +16463,7 @@
       <c r="F723" s="25"/>
       <c r="G723" s="26"/>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" s="24"/>
       <c r="B724" s="14" t="s">
         <v>423</v>
@@ -16472,7 +16478,7 @@
       <c r="F724" s="25"/>
       <c r="G724" s="26"/>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" s="24"/>
       <c r="B725" s="14" t="s">
         <v>424</v>
@@ -16489,7 +16495,7 @@
       <c r="F725" s="25"/>
       <c r="G725" s="26"/>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" s="18" t="s">
         <v>790</v>
       </c>
@@ -16504,7 +16510,7 @@
       <c r="F726" s="22"/>
       <c r="G726" s="23"/>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" s="24"/>
       <c r="B727" s="14" t="s">
         <v>564</v>
@@ -16523,7 +16529,7 @@
       </c>
       <c r="G727" s="26"/>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" s="24"/>
       <c r="B728" s="14" t="s">
         <v>791</v>
@@ -16540,7 +16546,7 @@
       </c>
       <c r="G728" s="26"/>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" s="24"/>
       <c r="B729" s="14" t="s">
         <v>792</v>
@@ -16555,7 +16561,7 @@
       <c r="F729" s="25"/>
       <c r="G729" s="26"/>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" s="24"/>
       <c r="B730" s="14" t="s">
         <v>493</v>
@@ -16574,7 +16580,7 @@
       </c>
       <c r="G730" s="26"/>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" s="24"/>
       <c r="B731" s="14" t="s">
         <v>573</v>
@@ -16593,7 +16599,7 @@
       </c>
       <c r="G731" s="26"/>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" s="24"/>
       <c r="B732" s="14" t="s">
         <v>567</v>
@@ -16610,7 +16616,7 @@
       <c r="F732" s="25"/>
       <c r="G732" s="26"/>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" s="24"/>
       <c r="B733" s="14" t="s">
         <v>568</v>
@@ -16627,7 +16633,7 @@
       <c r="F733" s="25"/>
       <c r="G733" s="26"/>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" s="31"/>
       <c r="B734" s="14" t="s">
         <v>793</v>
@@ -16642,7 +16648,7 @@
       <c r="F734" s="32"/>
       <c r="G734" s="26"/>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" s="31"/>
       <c r="B735" s="14" t="s">
         <v>414</v>
@@ -16657,7 +16663,7 @@
       <c r="F735" s="32"/>
       <c r="G735" s="33"/>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" s="31"/>
       <c r="B736" s="14" t="s">
         <v>415</v>
@@ -16674,7 +16680,7 @@
       <c r="F736" s="32"/>
       <c r="G736" s="33"/>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" s="31"/>
       <c r="B737" s="14" t="s">
         <v>423</v>
@@ -16689,7 +16695,7 @@
       <c r="F737" s="32"/>
       <c r="G737" s="33"/>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" s="12"/>
       <c r="B738" s="14" t="s">
         <v>424</v>
@@ -16706,7 +16712,7 @@
       <c r="F738" s="15"/>
       <c r="G738" s="17"/>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" s="18" t="s">
         <v>835</v>
       </c>
@@ -16721,7 +16727,7 @@
       <c r="F739" s="22"/>
       <c r="G739" s="23"/>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" s="13"/>
       <c r="B740" s="14" t="s">
         <v>740</v>
@@ -16740,7 +16746,7 @@
       </c>
       <c r="G740" s="17"/>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" s="13"/>
       <c r="B741" s="14" t="s">
         <v>458</v>
@@ -16759,7 +16765,7 @@
       </c>
       <c r="G741" s="17"/>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" s="13"/>
       <c r="B742" s="14" t="s">
         <v>741</v>
@@ -16776,7 +16782,7 @@
       <c r="F742" s="25"/>
       <c r="G742" s="17"/>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" s="13"/>
       <c r="B743" s="14" t="s">
         <v>742</v>
@@ -16793,7 +16799,7 @@
       <c r="F743" s="25"/>
       <c r="G743" s="17"/>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" s="13"/>
       <c r="B744" s="14" t="s">
         <v>736</v>
@@ -16812,7 +16818,7 @@
       </c>
       <c r="G744" s="17"/>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" s="13"/>
       <c r="B745" s="14" t="s">
         <v>737</v>
@@ -16829,8 +16835,8 @@
       <c r="F745" s="25"/>
       <c r="G745" s="17"/>
     </row>
-    <row r="746" spans="1:7">
-      <c r="A746" s="50"/>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A746" s="41"/>
       <c r="B746" s="35" t="s">
         <v>658</v>
       </c>
